--- a/ProjectCode_Testcase_Template_v2.2.xlsx
+++ b/ProjectCode_Testcase_Template_v2.2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\OneDrive - Hanoi University of Science and Technology\BaiGiang\Quantriduan\DemoTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\5.1\Quản trị dự án\BTL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{C2329458-F936-4E58-B5C2-98927AEFA968}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{DA92033F-E7E2-40F0-97C5-4B82ECF31751}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138D0511-8BBC-4D3E-81F1-274B7878C60F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="15480" windowHeight="4785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,10 +17,18 @@
     <sheet name="Operation Test" sheetId="15" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Operation Test'!$A$1:$K$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Operation Test'!$A$1:$K$148</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Overview!$A$1:$Y$37</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -30,21 +38,7 @@
     <author>Nguyen Duc Tien</author>
   </authors>
   <commentList>
-    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">Point \ Point 
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="H62" authorId="0" shapeId="0" xr:uid="{F503291B-FFD7-4D3F-B8B3-69C605056386}">
       <text>
         <r>
           <rPr>
@@ -58,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="J62" authorId="0" shapeId="0" xr:uid="{D19DBC81-2BFB-4DB0-A262-DA4E473A2011}">
       <text>
         <r>
           <rPr>
@@ -71,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="A63" authorId="0" shapeId="0" xr:uid="{613D0824-5E02-49A8-B1B2-694200647798}">
       <text>
         <r>
           <rPr>
@@ -85,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="H64" authorId="0" shapeId="0" xr:uid="{A279125F-66B0-49D1-BBF2-8534897B136A}">
       <text>
         <r>
           <rPr>
@@ -98,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="I64" authorId="0" shapeId="0" xr:uid="{78DBE668-E219-4A01-B486-6DEACD9DCDB2}">
       <text>
         <r>
           <rPr>
@@ -111,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="J64" authorId="0" shapeId="0" xr:uid="{3E824C48-8D73-45EA-9F27-B886AFB0B5D6}">
       <text>
         <r>
           <rPr>
@@ -124,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="A65" authorId="0" shapeId="0" xr:uid="{AFFB9D4C-FF7D-4F67-9EAA-EE0CEC20B799}">
       <text>
         <r>
           <rPr>
@@ -156,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="H66" authorId="0" shapeId="0" xr:uid="{0B8FB7DB-4124-4380-9815-8A16F5C4B42B}">
       <text>
         <r>
           <rPr>
@@ -169,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="I66" authorId="0" shapeId="0" xr:uid="{13B6234A-EC7E-443F-AA74-3D6AD30B1097}">
       <text>
         <r>
           <rPr>
@@ -182,7 +176,158 @@
         </r>
       </text>
     </comment>
-    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="A67" authorId="0" shapeId="0" xr:uid="{950597F7-0389-40FD-8602-53B7D6581C60}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>ID tương ứng của TestLink</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H102" authorId="0" shapeId="0" xr:uid="{1D2E0261-757D-45A0-B6F5-106DC86D9E86}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Kết quả test:
+OK / Not OK</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J102" authorId="0" shapeId="0" xr:uid="{70C8BDB7-79E3-4870-A893-02BAE0B91797}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Ánh xạ tới ID tương ứng của Bug được ghi nhận trong BugList</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A103" authorId="0" shapeId="0" xr:uid="{1C329A54-054E-4FCC-A396-AA4EA97B604A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Số thứ tự tăng dần testcase, không phần biệt sheet,...
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H104" authorId="0" shapeId="0" xr:uid="{EE2F6E6A-4FFC-4E5A-831F-297A5E9C976A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Người thực hiện test</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I104" authorId="0" shapeId="0" xr:uid="{C6B6BB8D-497C-484E-95FE-CBEAC7BCBA28}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Người chịu trách nhiệm về lỗi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J104" authorId="0" shapeId="0" xr:uid="{51B890E8-FA22-42C8-8CE1-4E8191FF3726}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Người sửa lỗi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A105" authorId="0" shapeId="0" xr:uid="{AB00733D-2980-4C88-B0FF-4F34B2230F0D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SheetNo.Suite.Suite-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>CaseNo</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+CaseNo tăng dần và lặp lại từ 1 giữa các Suite-Point khác nhau</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H106" authorId="0" shapeId="0" xr:uid="{4F9B4815-B37D-43FF-9568-07D0F9EE940F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Ngày thực hiện test</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I106" authorId="0" shapeId="0" xr:uid="{43516E28-70AE-429B-8192-4AD53988607D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Ngày test lại, trong trường hợp lần test trước có lỗi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A107" authorId="0" shapeId="0" xr:uid="{CD76CBB6-8DF2-43EC-9D0D-ED27588EC60B}">
       <text>
         <r>
           <rPr>
@@ -200,7 +345,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="147">
   <si>
     <t>Online ID</t>
   </si>
@@ -208,45 +353,21 @@
     <t>Resp</t>
   </si>
   <si>
-    <t>23/08/2008</t>
-  </si>
-  <si>
-    <t>BUG21312</t>
-  </si>
-  <si>
     <t>Subtopic(abnormality)</t>
   </si>
   <si>
-    <t>Test với tham số mặc định</t>
-  </si>
-  <si>
     <t>1.1-1</t>
   </si>
   <si>
     <t>1.1-2</t>
   </si>
   <si>
-    <t>Test với tham số chỉ định</t>
-  </si>
-  <si>
-    <t>2.1.</t>
-  </si>
-  <si>
     <t>1.</t>
   </si>
   <si>
     <t>2.</t>
   </si>
   <si>
-    <t xml:space="preserve">Test với tham số chỉ định \ Test với tham số -r </t>
-  </si>
-  <si>
-    <t>1.2.1-1</t>
-  </si>
-  <si>
-    <t>1.2.2-2</t>
-  </si>
-  <si>
     <t>Test case Overview</t>
   </si>
   <si>
@@ -316,24 +437,12 @@
     <t>Not OK</t>
   </si>
   <si>
-    <t>TienND</t>
-  </si>
-  <si>
     <t>Test Date</t>
   </si>
   <si>
     <t>Repairer</t>
   </si>
   <si>
-    <t>AnhDV</t>
-  </si>
-  <si>
-    <t>20/08/2008</t>
-  </si>
-  <si>
-    <t>DinhPX</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -343,86 +452,366 @@
     <t>Related Software:</t>
   </si>
   <si>
-    <t>Xem được phim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File Mpeg
+    <t>BUG213</t>
+  </si>
+  <si>
+    <t>Tested and result is correct</t>
+  </si>
+  <si>
+    <t>Tested and result is not correct</t>
+  </si>
+  <si>
+    <t>Pending test</t>
+  </si>
+  <si>
+    <t>Project:</t>
+  </si>
+  <si>
+    <t>Result:</t>
+  </si>
+  <si>
+    <t>OK:</t>
+  </si>
+  <si>
+    <t>Not OK:</t>
+  </si>
+  <si>
+    <t>Untested:</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Operation Test</t>
+  </si>
+  <si>
+    <t>Big Point:</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ID Fmt:</t>
+  </si>
+  <si>
+    <t>Hear and Note</t>
+  </si>
+  <si>
+    <t>Quản trị dự án - HH01</t>
+  </si>
+  <si>
+    <t>Chức năng đăng ký tài khoản</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email không hợp lệ
 </t>
   </si>
   <si>
-    <t>1. Add film mpeg
-2. Mo VLC
-3. Gõ địa chỉ 192.168.0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Không có tham số dòng lệnh
+    <t>1. Vào địa chỉ trang web của hệ thống
+2. Nhập thiếu kí tự "." trong trường Email Address</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo "INVALID EMAIL"  ngay dưới ô input nhập email</t>
+  </si>
+  <si>
+    <t>HoangDC</t>
+  </si>
+  <si>
+    <t>Password không thỏa mãn độ dài yêu cầu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Vào địa chỉ trang web của hệ thống
+2. Nhập password có đủ chữ in hoa, chữ in thường và chữ số với độ dài nhỏ hơn 8 kí tự hoặc lớn hơn 20 kí tự
 </t>
   </si>
   <si>
-    <t>1. Gõ duy nhất tên chương trình, không có tham số dòng lệnh</t>
-  </si>
-  <si>
-    <t>Chạy được</t>
-  </si>
-  <si>
-    <t>Không có tham số dòng lệnh, nhưng nhập từ Task Manager</t>
-  </si>
-  <si>
-    <t>File Mpeg có thời lượng 3s</t>
-  </si>
-  <si>
-    <t>BUG213</t>
-  </si>
-  <si>
-    <t>Tested and result is correct</t>
-  </si>
-  <si>
-    <t>Tested and result is not correct</t>
-  </si>
-  <si>
-    <t>Pending test</t>
-  </si>
-  <si>
-    <t>Project:</t>
-  </si>
-  <si>
-    <t>Result:</t>
-  </si>
-  <si>
-    <t>OK:</t>
-  </si>
-  <si>
-    <t>Not OK:</t>
-  </si>
-  <si>
-    <t>Untested:</t>
-  </si>
-  <si>
-    <t>Total:</t>
-  </si>
-  <si>
-    <t>(SheetNo).(Med Point).(Sub Point)-(Testcase ID)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Operation Test</t>
-  </si>
-  <si>
-    <t>Big Point:</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>ID Fmt:</t>
-  </si>
-  <si>
-    <t>Hear and Note</t>
+    <t>Hệ thống thông báo "PASSWORDS MUST BE BETWEEN 8 AND 20 CHARACTERS."  ngay dưới ô input nhập password</t>
+  </si>
+  <si>
+    <t>1.1-3</t>
+  </si>
+  <si>
+    <t>Nhập thiếu thông tin bắt buộc</t>
+  </si>
+  <si>
+    <t>1. Không nhập last name và nhập đầy đủ, đúng chuẩn thông tin vào các trường còn lại
+2. Nhấn "Register" để kiểm tra</t>
+  </si>
+  <si>
+    <t>Hệ thống không cho phép submit form</t>
+  </si>
+  <si>
+    <t>Chức năng đăng nhập</t>
+  </si>
+  <si>
+    <t>1.2-1</t>
+  </si>
+  <si>
+    <t>Kiểm tra Guest nhập đủ thông tin khớp với  email và password trong database</t>
+  </si>
+  <si>
+    <t>1. Nhập đầy đủ email và password khớp với email và password đã tồn tại trong database
+2. Nhấn nút "LOGIN" để kiểm tra</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo "Log in successfully as user." và chuyển hướng sang trang chủ</t>
+  </si>
+  <si>
+    <t>1.2-2</t>
+  </si>
+  <si>
+    <t>Kiểm tra Guest nhập đúng email nhưng sai password</t>
+  </si>
+  <si>
+    <t>1. Nhập đúng email trong database nhưng sai password
+2. Nhấn nút "LOGIN" để kiểm tra</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo "Oops! Wrong password." và xóa các giá trị vừa nhập trên 2 trường thông tin</t>
+  </si>
+  <si>
+    <t>Kiểm tra Guest nhập thiếu email</t>
+  </si>
+  <si>
+    <t>1. Nhập password nhưng bỏ trống email
+2. Nhấn nút "LOGIN" để kiểm tra</t>
+  </si>
+  <si>
+    <t>Hệ thống không cho phép submit form đăng nhập</t>
+  </si>
+  <si>
+    <t>1.2-3</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>Chức năng đăng xuất</t>
+  </si>
+  <si>
+    <t>1.3-1</t>
+  </si>
+  <si>
+    <t>Đăng xuất khỏi hệ thống</t>
+  </si>
+  <si>
+    <t>1. Click chuột vào nhãn "Log Out" trên đỉnh góc phải của trang web
+2. Gõ vào địa chỉ (URL) của bất kỳ chức năng nào của hệ thống (cần đăng nhập), hoặc sử dụng nút Back của trình duyệt để quay lại 1 chức năng đã sử dụng trước đó</t>
+  </si>
+  <si>
+    <t>Hệ thống thoát khỏi trạng thái đăng nhập và điều hướng đến trang Đăng nhập</t>
+  </si>
+  <si>
+    <t>Chức năng Thay ảnh đại diện</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>1.4-1</t>
+  </si>
+  <si>
+    <t>Thay đổi ảnh đại diện người dùng</t>
+  </si>
+  <si>
+    <t>1. Click vào tên tài khoản người dùng
+2. Click choose file để chọn ảnh đại diện
+3. Click upload file để upload ảnh đại diện</t>
+  </si>
+  <si>
+    <t>Hệ thống cập nhật ảnh đại diện của người dùng</t>
+  </si>
+  <si>
+    <t>1.4-2</t>
+  </si>
+  <si>
+    <t>Thay đổi ảnh đại diện nhà hàng</t>
+  </si>
+  <si>
+    <t>1. Click vào tên tài khoản nhà hàng
+2. Click choose file để chọn ảnh đại diện
+3. Click upload file để upload ảnh đại diện</t>
+  </si>
+  <si>
+    <t>Hệ thống cập nhật ảnh đại diện của nhà hàng</t>
+  </si>
+  <si>
+    <t>HieuBD</t>
+  </si>
+  <si>
+    <t>HoaNQ</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>Chức năng Hiển thị trang cá nhân người dùng</t>
+  </si>
+  <si>
+    <t>1.5-1</t>
+  </si>
+  <si>
+    <t>1.5-2</t>
+  </si>
+  <si>
+    <t>Kiểm tra chi tiết thông tin người dùng</t>
+  </si>
+  <si>
+    <t>1. Click vào tên tài khoản trên góc phải của màn hình</t>
+  </si>
+  <si>
+    <t>Kiểm tra chi tiết thông tin nhà hàng</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị đầy đủ các thông tin (name, email, address, phone) của nhà hàng đã đăng kí</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị đầy đủ các thông tin (first name, last name, email) của người dùng đã đăng kí, trường password và confiem để trống</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>Chức năng Thay đổi thông tin người dùng</t>
+  </si>
+  <si>
+    <t>1.6-1</t>
+  </si>
+  <si>
+    <t>1.6-2</t>
+  </si>
+  <si>
+    <t>1.6-3</t>
+  </si>
+  <si>
+    <t>Thông tin chỉnh sửa hợp lệ</t>
+  </si>
+  <si>
+    <t>1. Nhập đầy đủ, đúng chuẩn các thông tin cần chỉnh sửa
+2. Nhấn nút "Save Changes" để kiểm tra</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo "Update information successfully"</t>
+  </si>
+  <si>
+    <t>1.6-4</t>
+  </si>
+  <si>
+    <t>Password thiếu một trong 3 điều kiện bắt buộc (chứa kí tự thường, in hoa, sô hoặc symbol)</t>
+  </si>
+  <si>
+    <t>1. Nhập password chỉ chứa kí tự thường và in hóa mà không chứa số (hoặc symbol)
+2. Nhập đầy đủ, đúng chuẩn thông tin trong các trường còn lại</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo "MUST CONTAIN ONE LOWER &amp; UPPERCASE LETTER, AND ONE NON-ALPHA CHARACTER (A NUMBER OR A SYMBOL.)"  ngay dưới ô input nhập password</t>
+  </si>
+  <si>
+    <t>Kiểm tra Guest thiếu thông tin các trường bắt buộc</t>
+  </si>
+  <si>
+    <t>1. Xóa thông tin trong First name</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo "Firstname is required"</t>
+  </si>
+  <si>
+    <t>1. Nhập độ dài password nhỏ hơn 8 kí tự hoặc lớn hơn 20 kí tự
+2. Nhập đầy đủ, đúng chuẩn thông tin trong các trường còn lại</t>
+  </si>
+  <si>
+    <t>BUG214</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>Chức năng Thay đổi trạng thái món ăn</t>
+  </si>
+  <si>
+    <t>1.7-1</t>
+  </si>
+  <si>
+    <t>Thêm món ăn yêu thích</t>
+  </si>
+  <si>
+    <t>1. Click vào tên món ăn muốn xem chi tiết
+2. Chọn Add to wish lists (trái tim chuyển sang màu đỏ)
+3. Chọn wish list trên menu để kiểm tra</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị món ăn vào sách yêu thích</t>
+  </si>
+  <si>
+    <t>1.7-2</t>
+  </si>
+  <si>
+    <t>Bỏ thích món ăn</t>
+  </si>
+  <si>
+    <t>1. Click vào tên món ăn muốn xem chi tiết
+2. Chọn Add to wish lists (trái tim chuyển sang màu trắng)
+3. Chọn wish list trên menu để kiểm tra</t>
+  </si>
+  <si>
+    <t>Hệ thống xóa món ăn khỏi danh sách yêu thích</t>
+  </si>
+  <si>
+    <t>1.7-3</t>
+  </si>
+  <si>
+    <t>Xóa món ăn yêu thích</t>
+  </si>
+  <si>
+    <t>1. Chọn Wish list trên menu
+2. Tìm món ăn cần xóa và click DELETE để xóa món ăn yêu thích</t>
+  </si>
+  <si>
+    <t>1.7-4</t>
+  </si>
+  <si>
+    <t>Bỏ thích món ăn yêu thích</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>Chức năng Xóa tài khoản người dùng</t>
+  </si>
+  <si>
+    <t>1.8-1</t>
+  </si>
+  <si>
+    <t>1.8-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn Xóa trong phần thống kê sơ bộ </t>
+  </si>
+  <si>
+    <t>1. Truy cập vào link http://localhost:3000/admin để đăng nhập bằng tài khoản admin (email: vanlinh@gmail.com; pass: Kaito2011)
+2. Trong bảng USERS, click dấu "-" trong cột Action tương ứng của user cần xóa
+3. Kiểm tra trong danh sách users vừa cập nhật lại còn xuất hiện user vừa xóa hay không</t>
+  </si>
+  <si>
+    <t>Hệ thống xóa user và cập nhật lại danh sách user, hiển thị trên bản USERS</t>
+  </si>
+  <si>
+    <t>Chọn Xóa trong phần thống kê users</t>
+  </si>
+  <si>
+    <t>1.  Truy cập vào link http://localhost:3000/admin để đăng nhập bằng tài khoản admin (email: vanlinh@gmail.com; pass: Kaito2011)
+2. Chọn users ở menu bên trái màn hình
+3. Trong bảng USERS, click "Delete" trong cột Action tương ứng của user cần xóa
+4. Kiểm tra trong danh sách users vừa cập nhật lại còn xuất hiện user vừa xóa hay không</t>
+  </si>
+  <si>
+    <t>1.1.1-1</t>
   </si>
 </sst>
 </file>
@@ -933,7 +1322,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1021,12 +1410,6 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="21" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1036,9 +1419,6 @@
     <xf numFmtId="1" fontId="21" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1048,15 +1428,6 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1065,15 +1436,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1184,9 +1546,6 @@
     <xf numFmtId="49" fontId="20" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1231,6 +1590,33 @@
     <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1238,102 +1624,176 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1795,13 +2255,13 @@
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
-      <c r="V2" s="79"/>
+      <c r="V2" s="70"/>
       <c r="W2" s="13"/>
       <c r="X2" s="14"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="3" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="5"/>
@@ -1815,7 +2275,7 @@
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
-      <c r="N3" s="78"/>
+      <c r="N3" s="69"/>
       <c r="O3" s="18"/>
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
@@ -1823,7 +2283,7 @@
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
-      <c r="V3" s="80"/>
+      <c r="V3" s="71"/>
       <c r="W3" s="18"/>
       <c r="X3" s="19"/>
     </row>
@@ -1882,13 +2342,13 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="O6" s="127" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
+      <c r="O6" s="126" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
       <c r="U6" s="18"/>
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
@@ -1898,11 +2358,11 @@
       <c r="B7" s="22"/>
       <c r="E7" s="4"/>
       <c r="G7" s="21"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="127"/>
-      <c r="R7" s="127"/>
-      <c r="S7" s="127"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
       <c r="X7" s="23"/>
     </row>
     <row r="8" spans="1:24" s="24" customFormat="1" ht="14.25" customHeight="1">
@@ -1911,37 +2371,37 @@
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="31"/>
-      <c r="X8" s="77"/>
+      <c r="X8" s="68"/>
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1">
       <c r="B9" s="30"/>
       <c r="C9" s="18"/>
       <c r="D9" s="27" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="82"/>
+      <c r="H9" s="73"/>
       <c r="X9" s="19"/>
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1">
       <c r="B10" s="30"/>
       <c r="C10" s="18"/>
       <c r="D10" s="27" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
-      <c r="H10" s="82"/>
+      <c r="H10" s="73"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
-      <c r="L10" s="124" t="s">
-        <v>24</v>
+      <c r="L10" s="114" t="s">
+        <v>16</v>
       </c>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
@@ -1955,34 +2415,34 @@
       <c r="B11" s="30"/>
       <c r="C11" s="18"/>
       <c r="D11" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="128">
+        <v>9</v>
+      </c>
+      <c r="E11" s="127">
         <f ca="1">TODAY()</f>
-        <v>43206</v>
-      </c>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="82"/>
+        <v>43441</v>
+      </c>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="73"/>
       <c r="L11" s="33" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
       <c r="O11" s="33" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P11" s="33"/>
       <c r="Q11" s="33" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="R11" s="33"/>
       <c r="S11" s="33" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="T11" s="33"/>
       <c r="U11" s="33" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="V11" s="33"/>
       <c r="X11" s="19"/>
@@ -1990,27 +2450,27 @@
     <row r="12" spans="1:24">
       <c r="B12" s="30"/>
       <c r="L12" s="34" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
-      <c r="O12" s="73">
+      <c r="O12" s="64">
         <v>2</v>
       </c>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="74">
+      <c r="P12" s="64"/>
+      <c r="Q12" s="65">
         <v>3</v>
       </c>
-      <c r="R12" s="74"/>
-      <c r="S12" s="75">
+      <c r="R12" s="65"/>
+      <c r="S12" s="66">
         <v>4</v>
       </c>
-      <c r="T12" s="75"/>
-      <c r="U12" s="76">
+      <c r="T12" s="66"/>
+      <c r="U12" s="67">
         <f t="shared" ref="U12:U18" si="0">SUM(O12:T12)</f>
         <v>9</v>
       </c>
-      <c r="V12" s="76"/>
+      <c r="V12" s="67"/>
       <c r="X12" s="19"/>
     </row>
     <row r="13" spans="1:24">
@@ -2020,23 +2480,23 @@
       </c>
       <c r="M13" s="34"/>
       <c r="N13" s="34"/>
-      <c r="O13" s="73">
+      <c r="O13" s="64">
         <v>22</v>
       </c>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="74">
+      <c r="P13" s="64"/>
+      <c r="Q13" s="65">
         <v>22</v>
       </c>
-      <c r="R13" s="74"/>
-      <c r="S13" s="75">
+      <c r="R13" s="65"/>
+      <c r="S13" s="66">
         <v>22</v>
       </c>
-      <c r="T13" s="75"/>
-      <c r="U13" s="76">
+      <c r="T13" s="66"/>
+      <c r="U13" s="67">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="V13" s="76"/>
+      <c r="V13" s="67"/>
       <c r="X13" s="19"/>
     </row>
     <row r="14" spans="1:24">
@@ -2046,56 +2506,56 @@
       </c>
       <c r="M14" s="35"/>
       <c r="N14" s="35"/>
-      <c r="O14" s="73">
+      <c r="O14" s="64">
         <v>32</v>
       </c>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="74">
+      <c r="P14" s="64"/>
+      <c r="Q14" s="65">
         <v>32</v>
       </c>
-      <c r="R14" s="74"/>
-      <c r="S14" s="75">
+      <c r="R14" s="65"/>
+      <c r="S14" s="66">
         <v>32</v>
       </c>
-      <c r="T14" s="75"/>
-      <c r="U14" s="76">
+      <c r="T14" s="66"/>
+      <c r="U14" s="67">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="V14" s="76"/>
+      <c r="V14" s="67"/>
       <c r="X14" s="19"/>
     </row>
     <row r="15" spans="1:24">
       <c r="B15" s="30"/>
       <c r="D15" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
+        <v>33</v>
+      </c>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
       <c r="L15" s="34">
         <v>4</v>
       </c>
       <c r="M15" s="34"/>
       <c r="N15" s="34"/>
-      <c r="O15" s="73">
+      <c r="O15" s="64">
         <v>42</v>
       </c>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="74">
+      <c r="P15" s="64"/>
+      <c r="Q15" s="65">
         <v>42</v>
       </c>
-      <c r="R15" s="74"/>
-      <c r="S15" s="75">
+      <c r="R15" s="65"/>
+      <c r="S15" s="66">
         <v>42</v>
       </c>
-      <c r="T15" s="75"/>
-      <c r="U15" s="76">
+      <c r="T15" s="66"/>
+      <c r="U15" s="67">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="V15" s="76"/>
+      <c r="V15" s="67"/>
       <c r="X15" s="19"/>
     </row>
     <row r="16" spans="1:24">
@@ -2110,23 +2570,23 @@
       </c>
       <c r="M16" s="35"/>
       <c r="N16" s="35"/>
-      <c r="O16" s="73">
+      <c r="O16" s="64">
         <v>52</v>
       </c>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="74">
+      <c r="P16" s="64"/>
+      <c r="Q16" s="65">
         <v>52</v>
       </c>
-      <c r="R16" s="74"/>
-      <c r="S16" s="75">
+      <c r="R16" s="65"/>
+      <c r="S16" s="66">
         <v>52</v>
       </c>
-      <c r="T16" s="75"/>
-      <c r="U16" s="76">
+      <c r="T16" s="66"/>
+      <c r="U16" s="67">
         <f t="shared" si="0"/>
         <v>156</v>
       </c>
-      <c r="V16" s="76"/>
+      <c r="V16" s="67"/>
       <c r="X16" s="19"/>
     </row>
     <row r="17" spans="2:35">
@@ -2141,23 +2601,23 @@
       </c>
       <c r="M17" s="34"/>
       <c r="N17" s="34"/>
-      <c r="O17" s="73">
+      <c r="O17" s="64">
         <v>62</v>
       </c>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="74">
+      <c r="P17" s="64"/>
+      <c r="Q17" s="65">
         <v>62</v>
       </c>
-      <c r="R17" s="74"/>
-      <c r="S17" s="75">
+      <c r="R17" s="65"/>
+      <c r="S17" s="66">
         <v>62</v>
       </c>
-      <c r="T17" s="75"/>
-      <c r="U17" s="76">
+      <c r="T17" s="66"/>
+      <c r="U17" s="67">
         <f t="shared" si="0"/>
         <v>186</v>
       </c>
-      <c r="V17" s="76"/>
+      <c r="V17" s="67"/>
       <c r="X17" s="19"/>
     </row>
     <row r="18" spans="2:35">
@@ -2172,23 +2632,23 @@
       </c>
       <c r="M18" s="35"/>
       <c r="N18" s="35"/>
-      <c r="O18" s="73">
+      <c r="O18" s="64">
         <v>72</v>
       </c>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="74">
+      <c r="P18" s="64"/>
+      <c r="Q18" s="65">
         <v>72</v>
       </c>
-      <c r="R18" s="74"/>
-      <c r="S18" s="75">
+      <c r="R18" s="65"/>
+      <c r="S18" s="66">
         <v>72</v>
       </c>
-      <c r="T18" s="75"/>
-      <c r="U18" s="76">
+      <c r="T18" s="66"/>
+      <c r="U18" s="67">
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
-      <c r="V18" s="76"/>
+      <c r="V18" s="67"/>
       <c r="X18" s="19"/>
     </row>
     <row r="19" spans="2:35">
@@ -2199,31 +2659,31 @@
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
       <c r="L19" s="36" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M19" s="37"/>
       <c r="N19" s="37"/>
-      <c r="O19" s="122">
+      <c r="O19" s="112">
         <f>SUM(O12:O18)</f>
         <v>284</v>
       </c>
-      <c r="P19" s="122"/>
-      <c r="Q19" s="122">
+      <c r="P19" s="112"/>
+      <c r="Q19" s="112">
         <f>SUM(Q12:Q18)</f>
         <v>285</v>
       </c>
-      <c r="R19" s="122"/>
-      <c r="S19" s="122">
+      <c r="R19" s="112"/>
+      <c r="S19" s="112">
         <f>SUM(S12:S18)</f>
         <v>286</v>
       </c>
-      <c r="T19" s="122"/>
-      <c r="U19" s="123">
+      <c r="T19" s="112"/>
+      <c r="U19" s="113">
         <f>SUM(U12:U18)</f>
         <v>855</v>
       </c>
-      <c r="V19" s="123"/>
-      <c r="W19" s="84"/>
+      <c r="V19" s="113"/>
+      <c r="W19" s="75"/>
       <c r="X19" s="19"/>
     </row>
     <row r="20" spans="2:35">
@@ -2251,12 +2711,12 @@
       <c r="B22" s="15"/>
       <c r="C22" s="4"/>
       <c r="D22" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
+        <v>34</v>
+      </c>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
       <c r="W22" s="17"/>
       <c r="X22" s="23"/>
     </row>
@@ -2267,7 +2727,7 @@
       <c r="F23" s="44"/>
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
-      <c r="W23" s="85"/>
+      <c r="W23" s="76"/>
       <c r="X23" s="23"/>
     </row>
     <row r="24" spans="2:35" s="17" customFormat="1">
@@ -2277,20 +2737,20 @@
       <c r="F24" s="44"/>
       <c r="G24" s="44"/>
       <c r="H24" s="44"/>
-      <c r="L24" s="124" t="s">
-        <v>67</v>
-      </c>
-      <c r="M24" s="114"/>
-      <c r="N24" s="114"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="115"/>
-      <c r="Q24" s="115"/>
-      <c r="R24" s="115"/>
-      <c r="S24" s="115"/>
-      <c r="T24" s="115"/>
-      <c r="U24" s="115"/>
-      <c r="V24" s="115"/>
-      <c r="W24" s="83"/>
+      <c r="L24" s="114" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" s="104"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="105"/>
+      <c r="R24" s="105"/>
+      <c r="S24" s="105"/>
+      <c r="T24" s="105"/>
+      <c r="U24" s="105"/>
+      <c r="V24" s="105"/>
+      <c r="W24" s="74"/>
       <c r="X24" s="23"/>
     </row>
     <row r="25" spans="2:35" s="17" customFormat="1">
@@ -2299,18 +2759,18 @@
       <c r="F25" s="44"/>
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
-      <c r="L25" s="116"/>
-      <c r="M25" s="117"/>
-      <c r="N25" s="117"/>
-      <c r="O25" s="117"/>
-      <c r="P25" s="118"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="118"/>
-      <c r="S25" s="118"/>
-      <c r="T25" s="118"/>
-      <c r="U25" s="118"/>
-      <c r="V25" s="118"/>
-      <c r="W25" s="83"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="107"/>
+      <c r="O25" s="107"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="108"/>
+      <c r="R25" s="108"/>
+      <c r="S25" s="108"/>
+      <c r="T25" s="108"/>
+      <c r="U25" s="108"/>
+      <c r="V25" s="108"/>
+      <c r="W25" s="74"/>
       <c r="X25" s="23"/>
     </row>
     <row r="26" spans="2:35" s="17" customFormat="1">
@@ -2319,58 +2779,58 @@
       <c r="F26" s="44"/>
       <c r="G26" s="44"/>
       <c r="H26" s="44"/>
-      <c r="L26" s="116"/>
-      <c r="M26" s="117"/>
-      <c r="N26" s="117"/>
-      <c r="O26" s="117"/>
-      <c r="P26" s="118"/>
-      <c r="Q26" s="118"/>
-      <c r="R26" s="118"/>
-      <c r="S26" s="118"/>
-      <c r="T26" s="118"/>
-      <c r="U26" s="118"/>
-      <c r="V26" s="118"/>
-      <c r="W26" s="83"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
+      <c r="O26" s="107"/>
+      <c r="P26" s="108"/>
+      <c r="Q26" s="108"/>
+      <c r="R26" s="108"/>
+      <c r="S26" s="108"/>
+      <c r="T26" s="108"/>
+      <c r="U26" s="108"/>
+      <c r="V26" s="108"/>
+      <c r="W26" s="74"/>
       <c r="X26" s="23"/>
-      <c r="AB26" s="86"/>
+      <c r="AB26" s="77"/>
     </row>
     <row r="27" spans="2:35" s="17" customFormat="1">
       <c r="B27" s="22"/>
       <c r="D27" s="38"/>
       <c r="E27" s="4"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="117"/>
-      <c r="N27" s="117"/>
-      <c r="O27" s="117"/>
-      <c r="P27" s="118"/>
-      <c r="Q27" s="118"/>
-      <c r="R27" s="118"/>
-      <c r="S27" s="118"/>
-      <c r="T27" s="118"/>
-      <c r="U27" s="118"/>
-      <c r="V27" s="118"/>
-      <c r="W27" s="83"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="107"/>
+      <c r="N27" s="107"/>
+      <c r="O27" s="107"/>
+      <c r="P27" s="108"/>
+      <c r="Q27" s="108"/>
+      <c r="R27" s="108"/>
+      <c r="S27" s="108"/>
+      <c r="T27" s="108"/>
+      <c r="U27" s="108"/>
+      <c r="V27" s="108"/>
+      <c r="W27" s="74"/>
       <c r="X27" s="23"/>
-      <c r="AB27" s="86"/>
+      <c r="AB27" s="77"/>
     </row>
     <row r="28" spans="2:35" s="17" customFormat="1">
       <c r="B28" s="22"/>
       <c r="D28" s="38"/>
       <c r="E28" s="4"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="117"/>
-      <c r="N28" s="117"/>
-      <c r="O28" s="117"/>
-      <c r="P28" s="118"/>
-      <c r="Q28" s="118"/>
-      <c r="R28" s="118"/>
-      <c r="S28" s="118"/>
-      <c r="T28" s="118"/>
-      <c r="U28" s="118"/>
-      <c r="V28" s="118"/>
-      <c r="W28" s="83"/>
+      <c r="L28" s="106"/>
+      <c r="M28" s="107"/>
+      <c r="N28" s="107"/>
+      <c r="O28" s="107"/>
+      <c r="P28" s="108"/>
+      <c r="Q28" s="108"/>
+      <c r="R28" s="108"/>
+      <c r="S28" s="108"/>
+      <c r="T28" s="108"/>
+      <c r="U28" s="108"/>
+      <c r="V28" s="108"/>
+      <c r="W28" s="74"/>
       <c r="X28" s="23"/>
-      <c r="AB28" s="86"/>
+      <c r="AB28" s="77"/>
     </row>
     <row r="29" spans="2:35" s="17" customFormat="1">
       <c r="B29" s="22"/>
@@ -2380,40 +2840,40 @@
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
       <c r="K29" s="31"/>
-      <c r="L29" s="116"/>
-      <c r="M29" s="117"/>
-      <c r="N29" s="117"/>
-      <c r="O29" s="117"/>
-      <c r="P29" s="118"/>
-      <c r="Q29" s="118"/>
-      <c r="R29" s="118"/>
-      <c r="S29" s="118"/>
-      <c r="T29" s="118"/>
-      <c r="U29" s="118"/>
-      <c r="V29" s="118"/>
-      <c r="W29" s="83"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="107"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="108"/>
+      <c r="U29" s="108"/>
+      <c r="V29" s="108"/>
+      <c r="W29" s="74"/>
       <c r="X29" s="23"/>
     </row>
     <row r="30" spans="2:35" s="17" customFormat="1">
       <c r="B30" s="22"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="117"/>
-      <c r="N30" s="117"/>
-      <c r="O30" s="117"/>
-      <c r="P30" s="118"/>
-      <c r="Q30" s="118"/>
-      <c r="R30" s="118"/>
-      <c r="S30" s="118"/>
-      <c r="T30" s="118"/>
-      <c r="U30" s="118"/>
-      <c r="V30" s="118"/>
-      <c r="W30" s="83"/>
+      <c r="L30" s="106"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="107"/>
+      <c r="P30" s="108"/>
+      <c r="Q30" s="108"/>
+      <c r="R30" s="108"/>
+      <c r="S30" s="108"/>
+      <c r="T30" s="108"/>
+      <c r="U30" s="108"/>
+      <c r="V30" s="108"/>
+      <c r="W30" s="74"/>
       <c r="X30" s="23"/>
     </row>
     <row r="31" spans="2:35">
       <c r="B31" s="15"/>
       <c r="C31" s="39" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="28"/>
@@ -2423,18 +2883,18 @@
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
       <c r="K31" s="18"/>
-      <c r="L31" s="119"/>
-      <c r="M31" s="117"/>
-      <c r="N31" s="117"/>
-      <c r="O31" s="117"/>
-      <c r="P31" s="118"/>
-      <c r="Q31" s="118"/>
-      <c r="R31" s="118"/>
-      <c r="S31" s="118"/>
-      <c r="T31" s="118"/>
-      <c r="U31" s="118"/>
-      <c r="V31" s="118"/>
-      <c r="W31" s="83"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="107"/>
+      <c r="N31" s="107"/>
+      <c r="O31" s="107"/>
+      <c r="P31" s="108"/>
+      <c r="Q31" s="108"/>
+      <c r="R31" s="108"/>
+      <c r="S31" s="108"/>
+      <c r="T31" s="108"/>
+      <c r="U31" s="108"/>
+      <c r="V31" s="108"/>
+      <c r="W31" s="74"/>
       <c r="X31" s="23"/>
       <c r="AA31" s="17"/>
       <c r="AB31" s="17"/>
@@ -2449,7 +2909,7 @@
     <row r="32" spans="2:35">
       <c r="B32" s="46"/>
       <c r="C32" s="40" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -2459,18 +2919,18 @@
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
-      <c r="L32" s="116"/>
-      <c r="M32" s="117"/>
-      <c r="N32" s="117"/>
-      <c r="O32" s="117"/>
-      <c r="P32" s="118"/>
-      <c r="Q32" s="118"/>
-      <c r="R32" s="118"/>
-      <c r="S32" s="118"/>
-      <c r="T32" s="118"/>
-      <c r="U32" s="118"/>
-      <c r="V32" s="118"/>
-      <c r="W32" s="83"/>
+      <c r="L32" s="106"/>
+      <c r="M32" s="107"/>
+      <c r="N32" s="107"/>
+      <c r="O32" s="107"/>
+      <c r="P32" s="108"/>
+      <c r="Q32" s="108"/>
+      <c r="R32" s="108"/>
+      <c r="S32" s="108"/>
+      <c r="T32" s="108"/>
+      <c r="U32" s="108"/>
+      <c r="V32" s="108"/>
+      <c r="W32" s="74"/>
       <c r="X32" s="23"/>
       <c r="AA32" s="17"/>
       <c r="AB32" s="17"/>
@@ -2493,18 +2953,18 @@
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
-      <c r="L33" s="116"/>
-      <c r="M33" s="120"/>
-      <c r="N33" s="117"/>
-      <c r="O33" s="117"/>
-      <c r="P33" s="118"/>
-      <c r="Q33" s="118"/>
-      <c r="R33" s="118"/>
-      <c r="S33" s="118"/>
-      <c r="T33" s="118"/>
-      <c r="U33" s="118"/>
-      <c r="V33" s="121"/>
-      <c r="W33" s="84"/>
+      <c r="L33" s="106"/>
+      <c r="M33" s="110"/>
+      <c r="N33" s="107"/>
+      <c r="O33" s="107"/>
+      <c r="P33" s="108"/>
+      <c r="Q33" s="108"/>
+      <c r="R33" s="108"/>
+      <c r="S33" s="108"/>
+      <c r="T33" s="108"/>
+      <c r="U33" s="108"/>
+      <c r="V33" s="111"/>
+      <c r="W33" s="75"/>
       <c r="X33" s="23"/>
       <c r="AA33" s="17"/>
       <c r="AB33" s="17"/>
@@ -2519,7 +2979,7 @@
     <row r="34" spans="1:35">
       <c r="B34" s="30"/>
       <c r="C34" s="39" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="28"/>
@@ -2543,7 +3003,7 @@
       <c r="W34" s="45"/>
       <c r="X34" s="23"/>
       <c r="AA34" s="17"/>
-      <c r="AB34" s="86"/>
+      <c r="AB34" s="77"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="17"/>
       <c r="AE34" s="17"/>
@@ -2555,7 +3015,7 @@
     <row r="35" spans="1:35">
       <c r="B35" s="30"/>
       <c r="C35" s="40" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -2820,10 +3280,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor indexed="31"/>
   </sheetPr>
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K193"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D9" sqref="D9:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2835,1284 +3295,3555 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="65" customFormat="1">
-      <c r="A1" s="87" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="88" t="str">
-        <f>Overview!E9</f>
-        <v>Hear and Note</v>
-      </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="111">
-        <f>COUNTIF(H1:H786,"OK")</f>
-        <v>1</v>
-      </c>
-      <c r="J1" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="93"/>
-    </row>
-    <row r="2" spans="1:11" s="65" customFormat="1">
-      <c r="A2" s="126" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="98" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="112">
-        <f>COUNTIF(H2:H787,"Not OK")</f>
-        <v>4</v>
-      </c>
-      <c r="J2" s="99" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" s="100"/>
-    </row>
-    <row r="3" spans="1:11" s="65" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A3" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="98" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="113">
-        <f>COUNTIF(H2:H787,"Untested")</f>
+    <row r="1" spans="1:11" s="59" customFormat="1">
+      <c r="A1" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="101">
+        <f>COUNTIF(H1:H883,"OK")</f>
+        <v>19</v>
+      </c>
+      <c r="J1" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="84"/>
+    </row>
+    <row r="2" spans="1:11" s="59" customFormat="1">
+      <c r="A2" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="102">
+        <f>COUNTIF(H2:H884,"Not OK")</f>
+        <v>2</v>
+      </c>
+      <c r="J2" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="91"/>
+    </row>
+    <row r="3" spans="1:11" s="59" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A3" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="103">
+        <f>COUNTIF(H2:H884,"Untested")</f>
         <v>0</v>
       </c>
-      <c r="J3" s="99" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="100"/>
-    </row>
-    <row r="4" spans="1:11" s="65" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A4" s="101"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="102" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="95"/>
-      <c r="I4" s="112">
-        <f>COUNTIF(H3:H788,"Result")</f>
+      <c r="J3" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="91"/>
+    </row>
+    <row r="4" spans="1:11" s="59" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A4" s="92"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="86"/>
+      <c r="I4" s="102">
+        <f>COUNTIF(H3:H885,"Result")</f>
+        <v>21</v>
+      </c>
+      <c r="J4" s="90"/>
+      <c r="K4" s="91"/>
+    </row>
+    <row r="5" spans="1:11" s="59" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A5" s="94"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="99"/>
+    </row>
+    <row r="6" spans="1:11" s="59" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+    </row>
+    <row r="7" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A7" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="99"/>
-      <c r="K4" s="100"/>
-    </row>
-    <row r="5" spans="1:11" s="65" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A5" s="103"/>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="108"/>
-    </row>
-    <row r="6" spans="1:11" s="65" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A6" s="69"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-    </row>
-    <row r="7" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A7" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
+      <c r="B7" s="153" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="153"/>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A8" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="133"/>
-      <c r="D8" s="132" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="133"/>
-      <c r="F8" s="132" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="133"/>
-      <c r="H8" s="131" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="131"/>
-      <c r="J8" s="48" t="s">
-        <v>32</v>
+      <c r="A8" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="129"/>
+      <c r="D8" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="129"/>
+      <c r="F8" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="129"/>
+      <c r="H8" s="154" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="154"/>
+      <c r="J8" s="118" t="s">
+        <v>24</v>
       </c>
       <c r="K8" s="49" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="10.5" customHeight="1">
       <c r="A9" s="50">
         <v>1</v>
       </c>
-      <c r="B9" s="151" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="152"/>
-      <c r="D9" s="142" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="143"/>
-      <c r="F9" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="140" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="141"/>
+      <c r="B9" s="131" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="132"/>
+      <c r="D9" s="140" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="141"/>
+      <c r="F9" s="158" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="159"/>
+      <c r="H9" s="146" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="147"/>
       <c r="J9" s="50"/>
-      <c r="K9" s="137"/>
+      <c r="K9" s="150"/>
     </row>
     <row r="10" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A10" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="153"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="47" t="s">
+      <c r="A10" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="133"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="138"/>
+      <c r="J10" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="151"/>
     </row>
     <row r="11" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A11" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="153"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="54"/>
+      <c r="A11" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="133"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="52"/>
       <c r="J11" s="50"/>
-      <c r="K11" s="138"/>
+      <c r="K11" s="151"/>
     </row>
     <row r="12" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="153"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="138"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="117"/>
+      <c r="K12" s="151"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A13" s="55">
+      <c r="A13" s="53">
         <v>981</v>
       </c>
-      <c r="B13" s="155"/>
-      <c r="C13" s="156"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="139"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="55">
+        <v>43288</v>
+      </c>
+      <c r="I13" s="55"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="152"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A14" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="135" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="136"/>
-      <c r="D14" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="136"/>
-      <c r="F14" s="135" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="136"/>
-      <c r="H14" s="150" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="150"/>
-      <c r="J14" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="61" t="s">
-        <v>33</v>
+      <c r="A14" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="129"/>
+      <c r="D14" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="129"/>
+      <c r="F14" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="129"/>
+      <c r="H14" s="154" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="154"/>
+      <c r="J14" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="49" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="10.5" customHeight="1">
       <c r="A15" s="50">
         <v>2</v>
       </c>
-      <c r="B15" s="151" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="152"/>
-      <c r="D15" s="142" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="143"/>
-      <c r="F15" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="157" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="158"/>
-      <c r="J15" s="57" t="s">
+      <c r="B15" s="131" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="132"/>
+      <c r="D15" s="140" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="141"/>
+      <c r="F15" s="158" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="159"/>
+      <c r="H15" s="146" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="147"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="150"/>
+    </row>
+    <row r="16" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A16" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="133"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="151"/>
+    </row>
+    <row r="17" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A17" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="133"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="52"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="151"/>
+    </row>
+    <row r="18" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A18" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="133"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="117"/>
+      <c r="K18" s="151"/>
+    </row>
+    <row r="19" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A19" s="53">
+        <v>982</v>
+      </c>
+      <c r="B19" s="135"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="55">
+        <v>43288</v>
+      </c>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="152"/>
+    </row>
+    <row r="20" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A20" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="129"/>
+      <c r="D20" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="129"/>
+      <c r="F20" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="129"/>
+      <c r="H20" s="154" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="154"/>
+      <c r="J20" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A21" s="50">
         <v>3</v>
       </c>
-      <c r="K15" s="137"/>
-    </row>
-    <row r="16" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A16" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="62" t="s">
+      <c r="B21" s="131" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="132"/>
+      <c r="D21" s="140" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="141"/>
+      <c r="F21" s="158" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="159"/>
+      <c r="H21" s="146" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="147"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="150"/>
+    </row>
+    <row r="22" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A22" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="133"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="J16" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="138"/>
-    </row>
-    <row r="17" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A17" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="153"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" s="138"/>
-    </row>
-    <row r="18" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A18" s="62" t="s">
+      <c r="J22" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="151"/>
+    </row>
+    <row r="23" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A23" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="133"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="52"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="151"/>
+    </row>
+    <row r="24" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A24" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="153"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="J18" s="62"/>
-      <c r="K18" s="138"/>
-    </row>
-    <row r="19" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A19" s="55">
-        <v>921</v>
-      </c>
-      <c r="B19" s="155"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="138"/>
-    </row>
-    <row r="20" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A20" s="109" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="134" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="134"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="129"/>
-    </row>
-    <row r="21" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A21" s="110" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="148" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="149"/>
-    </row>
-    <row r="22" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A22" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="135" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="136"/>
-      <c r="D22" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="136"/>
-      <c r="F22" s="135" t="s">
+      <c r="B24" s="133"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="136"/>
-      <c r="H22" s="150" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="150"/>
-      <c r="J22" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="62" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A23" s="50">
-        <f>A15+1</f>
-        <v>3</v>
-      </c>
-      <c r="B23" s="151" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="152"/>
-      <c r="D23" s="142" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="143"/>
-      <c r="F23" s="142" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="143"/>
-      <c r="H23" s="140" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="141"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="137"/>
-    </row>
-    <row r="24" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A24" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="153"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="J24" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" s="138"/>
+      <c r="I24" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="47"/>
+      <c r="K24" s="151"/>
     </row>
     <row r="25" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A25" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="153"/>
-      <c r="C25" s="154"/>
+      <c r="A25" s="53">
+        <v>983</v>
+      </c>
+      <c r="B25" s="135"/>
+      <c r="C25" s="136"/>
       <c r="D25" s="144"/>
       <c r="E25" s="145"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="54"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="138"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="55">
+        <v>43288</v>
+      </c>
+      <c r="I25" s="55"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="152"/>
     </row>
     <row r="26" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A26" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="153"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="138"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="120"/>
     </row>
     <row r="27" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A27" s="55">
-        <v>922</v>
-      </c>
-      <c r="B27" s="155"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="54"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="139"/>
+      <c r="A27" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="155" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="155"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="153"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A28" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="133"/>
-      <c r="D28" s="132" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="133"/>
-      <c r="F28" s="132" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="133"/>
+      <c r="A28" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="129"/>
+      <c r="D28" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="129"/>
+      <c r="F28" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="129"/>
       <c r="H28" s="130" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I28" s="130"/>
-      <c r="J28" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" s="63" t="s">
-        <v>33</v>
+      <c r="J28" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="119" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="10.5" customHeight="1">
       <c r="A29" s="50">
         <v>4</v>
       </c>
-      <c r="B29" s="151" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="152"/>
-      <c r="D29" s="142" t="s">
+      <c r="B29" s="131" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="132"/>
+      <c r="D29" s="140" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="141"/>
+      <c r="F29" s="140" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="141"/>
+      <c r="H29" s="148" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="149"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="150"/>
+    </row>
+    <row r="30" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A30" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="133"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="151"/>
+    </row>
+    <row r="31" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A31" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="133"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="151"/>
+    </row>
+    <row r="32" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A32" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="133"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="143"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="143"/>
+      <c r="H32" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="117"/>
+      <c r="K32" s="151"/>
+    </row>
+    <row r="33" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A33" s="53">
+        <v>821</v>
+      </c>
+      <c r="B33" s="135"/>
+      <c r="C33" s="136"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="144"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="55">
+        <v>43288</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="152"/>
+    </row>
+    <row r="34" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A34" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="129"/>
+      <c r="D34" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="143"/>
-      <c r="F29" s="142" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="143"/>
-      <c r="H29" s="157" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="158"/>
-      <c r="J29" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29" s="137"/>
-    </row>
-    <row r="30" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A30" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="153"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="I30" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="J30" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" s="138"/>
-    </row>
-    <row r="31" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A31" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="153"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="I31" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="J31" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="K31" s="138"/>
-    </row>
-    <row r="32" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A32" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="153"/>
-      <c r="C32" s="154"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="J32" s="47"/>
-      <c r="K32" s="138"/>
-    </row>
-    <row r="33" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A33" s="55">
-        <v>823</v>
-      </c>
-      <c r="B33" s="155"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="I33" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="J33" s="50"/>
-      <c r="K33" s="139"/>
-    </row>
-    <row r="34" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A34" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="133"/>
-      <c r="D34" s="132" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="133"/>
-      <c r="F34" s="132" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="133"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="129"/>
       <c r="H34" s="130" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I34" s="130"/>
-      <c r="J34" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="K34" s="63" t="s">
-        <v>33</v>
+      <c r="J34" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" s="119" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="10.5" customHeight="1">
       <c r="A35" s="50">
         <v>5</v>
       </c>
-      <c r="B35" s="151" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="152"/>
-      <c r="D35" s="142" t="s">
+      <c r="B35" s="131" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="132"/>
+      <c r="D35" s="140" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="141"/>
+      <c r="F35" s="140" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="141"/>
+      <c r="H35" s="148" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="149"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="150"/>
+    </row>
+    <row r="36" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A36" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="133"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="142"/>
+      <c r="E36" s="143"/>
+      <c r="F36" s="142"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="151"/>
+    </row>
+    <row r="37" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A37" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="133"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="142"/>
+      <c r="E37" s="143"/>
+      <c r="F37" s="142"/>
+      <c r="G37" s="143"/>
+      <c r="H37" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" s="52"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="151"/>
+    </row>
+    <row r="38" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A38" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="133"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="142"/>
+      <c r="E38" s="143"/>
+      <c r="F38" s="142"/>
+      <c r="G38" s="143"/>
+      <c r="H38" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" s="117"/>
+      <c r="K38" s="151"/>
+    </row>
+    <row r="39" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A39" s="53">
+        <v>822</v>
+      </c>
+      <c r="B39" s="135"/>
+      <c r="C39" s="136"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="144"/>
+      <c r="G39" s="145"/>
+      <c r="H39" s="55">
+        <v>43288</v>
+      </c>
+      <c r="I39" s="52"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="152"/>
+    </row>
+    <row r="40" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A40" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="129"/>
+      <c r="D40" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="143"/>
-      <c r="F35" s="142" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" s="143"/>
-      <c r="H35" s="157" t="s">
-        <v>37</v>
-      </c>
-      <c r="I35" s="158"/>
-      <c r="J35" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="K35" s="137"/>
-    </row>
-    <row r="36" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A36" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="153"/>
-      <c r="C36" s="154"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="145"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="145"/>
-      <c r="H36" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="I36" s="47" t="s">
+      <c r="E40" s="129"/>
+      <c r="F40" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="129"/>
+      <c r="H40" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="130"/>
+      <c r="J40" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" s="119" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A41" s="50">
+        <v>6</v>
+      </c>
+      <c r="B41" s="131" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="132"/>
+      <c r="D41" s="140" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="141"/>
+      <c r="F41" s="140" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" s="141"/>
+      <c r="H41" s="148" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="149"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="150"/>
+    </row>
+    <row r="42" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A42" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="133"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="142"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="142"/>
+      <c r="G42" s="143"/>
+      <c r="H42" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="J36" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="K36" s="138"/>
-    </row>
-    <row r="37" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A37" s="53" t="s">
+      <c r="J42" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="K42" s="151"/>
+    </row>
+    <row r="43" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A43" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="133"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="142"/>
+      <c r="E43" s="143"/>
+      <c r="F43" s="142"/>
+      <c r="G43" s="143"/>
+      <c r="H43" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" s="52"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="151"/>
+    </row>
+    <row r="44" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A44" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="133"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="142"/>
+      <c r="E44" s="143"/>
+      <c r="F44" s="142"/>
+      <c r="G44" s="143"/>
+      <c r="H44" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="117"/>
+      <c r="K44" s="151"/>
+    </row>
+    <row r="45" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A45" s="53">
+        <v>823</v>
+      </c>
+      <c r="B45" s="135"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="145"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="145"/>
+      <c r="H45" s="55">
+        <v>43288</v>
+      </c>
+      <c r="I45" s="52"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="152"/>
+    </row>
+    <row r="46" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A46" s="53"/>
+      <c r="B46" s="124"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="121"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="120"/>
+    </row>
+    <row r="47" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A47" s="100" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="155" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="155"/>
+      <c r="D47" s="153"/>
+      <c r="E47" s="153"/>
+      <c r="F47" s="153"/>
+      <c r="G47" s="153"/>
+      <c r="H47" s="153"/>
+      <c r="I47" s="153"/>
+      <c r="J47" s="153"/>
+      <c r="K47" s="153"/>
+    </row>
+    <row r="48" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A48" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="129"/>
+      <c r="D48" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="129"/>
+      <c r="F48" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="129"/>
+      <c r="H48" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" s="130"/>
+      <c r="J48" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" s="57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A49" s="50">
         <v>7</v>
       </c>
-      <c r="B37" s="153"/>
-      <c r="C37" s="154"/>
-      <c r="D37" s="144"/>
-      <c r="E37" s="145"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="145"/>
-      <c r="H37" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="I37" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="J37" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="K37" s="138"/>
-    </row>
-    <row r="38" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A38" s="47" t="s">
+      <c r="B49" s="131" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="132"/>
+      <c r="D49" s="140" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="141"/>
+      <c r="F49" s="140" t="s">
+        <v>83</v>
+      </c>
+      <c r="G49" s="141"/>
+      <c r="H49" s="148" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="149"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="150"/>
+    </row>
+    <row r="50" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A50" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="133"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="142"/>
+      <c r="E50" s="143"/>
+      <c r="F50" s="142"/>
+      <c r="G50" s="143"/>
+      <c r="H50" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="K50" s="151"/>
+    </row>
+    <row r="51" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A51" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="133"/>
+      <c r="C51" s="134"/>
+      <c r="D51" s="142"/>
+      <c r="E51" s="143"/>
+      <c r="F51" s="142"/>
+      <c r="G51" s="143"/>
+      <c r="H51" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="151"/>
+    </row>
+    <row r="52" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A52" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="153"/>
-      <c r="C38" s="154"/>
-      <c r="D38" s="144"/>
-      <c r="E38" s="145"/>
-      <c r="F38" s="144"/>
-      <c r="G38" s="145"/>
-      <c r="H38" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="I38" s="47" t="s">
+      <c r="B52" s="133"/>
+      <c r="C52" s="134"/>
+      <c r="D52" s="142"/>
+      <c r="E52" s="143"/>
+      <c r="F52" s="142"/>
+      <c r="G52" s="143"/>
+      <c r="H52" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="I52" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" s="47"/>
+      <c r="K52" s="151"/>
+    </row>
+    <row r="53" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A53" s="53">
+        <v>831</v>
+      </c>
+      <c r="B53" s="135"/>
+      <c r="C53" s="136"/>
+      <c r="D53" s="144"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="144"/>
+      <c r="G53" s="145"/>
+      <c r="H53" s="55">
+        <v>43288</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="152"/>
+    </row>
+    <row r="54" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A54" s="53"/>
+      <c r="B54" s="124"/>
+      <c r="C54" s="125"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="121"/>
+      <c r="G54" s="122"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="120"/>
+    </row>
+    <row r="55" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A55" s="100" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="155" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="155"/>
+      <c r="D55" s="153"/>
+      <c r="E55" s="153"/>
+      <c r="F55" s="153"/>
+      <c r="G55" s="153"/>
+      <c r="H55" s="153"/>
+      <c r="I55" s="153"/>
+      <c r="J55" s="153"/>
+      <c r="K55" s="153"/>
+    </row>
+    <row r="56" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A56" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="129"/>
+      <c r="D56" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="129"/>
+      <c r="F56" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="129"/>
+      <c r="H56" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" s="130"/>
+      <c r="J56" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="K56" s="119" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A57" s="50">
+        <v>8</v>
+      </c>
+      <c r="B57" s="131" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="132"/>
+      <c r="D57" s="140" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="141"/>
+      <c r="F57" s="140" t="s">
+        <v>89</v>
+      </c>
+      <c r="G57" s="141"/>
+      <c r="H57" s="148" t="s">
+        <v>32</v>
+      </c>
+      <c r="I57" s="149"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="150"/>
+    </row>
+    <row r="58" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A58" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="133"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="142"/>
+      <c r="E58" s="143"/>
+      <c r="F58" s="142"/>
+      <c r="G58" s="143"/>
+      <c r="H58" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="J58" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="K58" s="151"/>
+    </row>
+    <row r="59" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A59" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="133"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="142"/>
+      <c r="E59" s="143"/>
+      <c r="F59" s="142"/>
+      <c r="G59" s="143"/>
+      <c r="H59" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="151"/>
+    </row>
+    <row r="60" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A60" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="133"/>
+      <c r="C60" s="134"/>
+      <c r="D60" s="142"/>
+      <c r="E60" s="143"/>
+      <c r="F60" s="142"/>
+      <c r="G60" s="143"/>
+      <c r="H60" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="I60" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="J60" s="117"/>
+      <c r="K60" s="151"/>
+    </row>
+    <row r="61" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A61" s="53">
+        <v>841</v>
+      </c>
+      <c r="B61" s="135"/>
+      <c r="C61" s="136"/>
+      <c r="D61" s="144"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="144"/>
+      <c r="G61" s="145"/>
+      <c r="H61" s="55">
+        <v>43288</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="152"/>
+    </row>
+    <row r="62" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A62" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="138" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="139"/>
+      <c r="D62" s="138" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" s="139"/>
+      <c r="F62" s="138" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="139"/>
+      <c r="H62" s="137" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62" s="137"/>
+      <c r="J62" s="123" t="s">
+        <v>24</v>
+      </c>
+      <c r="K62" s="123" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A63" s="50">
+        <v>9</v>
+      </c>
+      <c r="B63" s="131" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="132"/>
+      <c r="D63" s="140" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="141"/>
+      <c r="F63" s="140" t="s">
+        <v>93</v>
+      </c>
+      <c r="G63" s="141"/>
+      <c r="H63" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="I63" s="147"/>
+      <c r="J63" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="J38" s="47"/>
-      <c r="K38" s="138"/>
-    </row>
-    <row r="39" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A39" s="55">
-        <v>823</v>
-      </c>
-      <c r="B39" s="155"/>
-      <c r="C39" s="156"/>
-      <c r="D39" s="146"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="146"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="I39" s="54" t="s">
+      <c r="K63" s="150"/>
+    </row>
+    <row r="64" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A64" s="123" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="133"/>
+      <c r="C64" s="134"/>
+      <c r="D64" s="142"/>
+      <c r="E64" s="143"/>
+      <c r="F64" s="142"/>
+      <c r="G64" s="143"/>
+      <c r="H64" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="J64" s="123" t="s">
+        <v>31</v>
+      </c>
+      <c r="K64" s="151"/>
+    </row>
+    <row r="65" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A65" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="133"/>
+      <c r="C65" s="134"/>
+      <c r="D65" s="142"/>
+      <c r="E65" s="143"/>
+      <c r="F65" s="142"/>
+      <c r="G65" s="143"/>
+      <c r="H65" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I65" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="J65" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="K65" s="151"/>
+    </row>
+    <row r="66" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A66" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="133"/>
+      <c r="C66" s="134"/>
+      <c r="D66" s="142"/>
+      <c r="E66" s="143"/>
+      <c r="F66" s="142"/>
+      <c r="G66" s="143"/>
+      <c r="H66" s="123" t="s">
+        <v>30</v>
+      </c>
+      <c r="I66" s="123" t="s">
+        <v>27</v>
+      </c>
+      <c r="J66" s="123"/>
+      <c r="K66" s="151"/>
+    </row>
+    <row r="67" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A67" s="53">
+        <v>842</v>
+      </c>
+      <c r="B67" s="135"/>
+      <c r="C67" s="136"/>
+      <c r="D67" s="144"/>
+      <c r="E67" s="145"/>
+      <c r="F67" s="144"/>
+      <c r="G67" s="145"/>
+      <c r="H67" s="55">
+        <v>43288</v>
+      </c>
+      <c r="I67" s="52">
+        <v>43304</v>
+      </c>
+      <c r="J67" s="50"/>
+      <c r="K67" s="152"/>
+    </row>
+    <row r="68" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A68" s="53"/>
+      <c r="B68" s="124"/>
+      <c r="C68" s="125"/>
+      <c r="D68" s="121"/>
+      <c r="E68" s="122"/>
+      <c r="F68" s="121"/>
+      <c r="G68" s="122"/>
+      <c r="H68" s="55"/>
+      <c r="I68" s="52"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="120"/>
+    </row>
+    <row r="69" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A69" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69" s="155"/>
+      <c r="D69" s="153"/>
+      <c r="E69" s="153"/>
+      <c r="F69" s="153"/>
+      <c r="G69" s="153"/>
+      <c r="H69" s="153"/>
+      <c r="I69" s="153"/>
+      <c r="J69" s="153"/>
+      <c r="K69" s="153"/>
+    </row>
+    <row r="70" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A70" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="129"/>
+      <c r="D70" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" s="129"/>
+      <c r="F70" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" s="129"/>
+      <c r="H70" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="I70" s="130"/>
+      <c r="J70" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="K70" s="119" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A71" s="50">
+        <v>10</v>
+      </c>
+      <c r="B71" s="131" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" s="132"/>
+      <c r="D71" s="140" t="s">
+        <v>101</v>
+      </c>
+      <c r="E71" s="141"/>
+      <c r="F71" s="140" t="s">
+        <v>104</v>
+      </c>
+      <c r="G71" s="141"/>
+      <c r="H71" s="148" t="s">
+        <v>32</v>
+      </c>
+      <c r="I71" s="149"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="150"/>
+    </row>
+    <row r="72" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A72" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="133"/>
+      <c r="C72" s="134"/>
+      <c r="D72" s="142"/>
+      <c r="E72" s="143"/>
+      <c r="F72" s="142"/>
+      <c r="G72" s="143"/>
+      <c r="H72" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="I72" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="J72" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="K72" s="151"/>
+    </row>
+    <row r="73" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A73" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="133"/>
+      <c r="C73" s="134"/>
+      <c r="D73" s="142"/>
+      <c r="E73" s="143"/>
+      <c r="F73" s="142"/>
+      <c r="G73" s="143"/>
+      <c r="H73" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="151"/>
+    </row>
+    <row r="74" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A74" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="133"/>
+      <c r="C74" s="134"/>
+      <c r="D74" s="142"/>
+      <c r="E74" s="143"/>
+      <c r="F74" s="142"/>
+      <c r="G74" s="143"/>
+      <c r="H74" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="I74" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="J74" s="117"/>
+      <c r="K74" s="151"/>
+    </row>
+    <row r="75" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A75" s="53">
+        <v>851</v>
+      </c>
+      <c r="B75" s="135"/>
+      <c r="C75" s="136"/>
+      <c r="D75" s="144"/>
+      <c r="E75" s="145"/>
+      <c r="F75" s="144"/>
+      <c r="G75" s="145"/>
+      <c r="H75" s="55">
+        <v>43288</v>
+      </c>
+      <c r="I75" s="1"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="152"/>
+    </row>
+    <row r="76" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A76" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="129"/>
+      <c r="D76" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="E76" s="129"/>
+      <c r="F76" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="129"/>
+      <c r="H76" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="I76" s="130"/>
+      <c r="J76" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="K76" s="119" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A77" s="50">
+        <v>11</v>
+      </c>
+      <c r="B77" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" s="132"/>
+      <c r="D77" s="140" t="s">
+        <v>101</v>
+      </c>
+      <c r="E77" s="141"/>
+      <c r="F77" s="140" t="s">
+        <v>103</v>
+      </c>
+      <c r="G77" s="141"/>
+      <c r="H77" s="148" t="s">
+        <v>32</v>
+      </c>
+      <c r="I77" s="149"/>
+      <c r="J77" s="54"/>
+      <c r="K77" s="150"/>
+    </row>
+    <row r="78" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A78" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" s="133"/>
+      <c r="C78" s="134"/>
+      <c r="D78" s="142"/>
+      <c r="E78" s="143"/>
+      <c r="F78" s="142"/>
+      <c r="G78" s="143"/>
+      <c r="H78" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="J78" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="K78" s="151"/>
+    </row>
+    <row r="79" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A79" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" s="133"/>
+      <c r="C79" s="134"/>
+      <c r="D79" s="142"/>
+      <c r="E79" s="143"/>
+      <c r="F79" s="142"/>
+      <c r="G79" s="143"/>
+      <c r="H79" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I79" s="52"/>
+      <c r="J79" s="50"/>
+      <c r="K79" s="151"/>
+    </row>
+    <row r="80" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A80" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="133"/>
+      <c r="C80" s="134"/>
+      <c r="D80" s="142"/>
+      <c r="E80" s="143"/>
+      <c r="F80" s="142"/>
+      <c r="G80" s="143"/>
+      <c r="H80" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="I80" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="J80" s="117"/>
+      <c r="K80" s="151"/>
+    </row>
+    <row r="81" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A81" s="53">
+        <v>852</v>
+      </c>
+      <c r="B81" s="135"/>
+      <c r="C81" s="136"/>
+      <c r="D81" s="144"/>
+      <c r="E81" s="145"/>
+      <c r="F81" s="144"/>
+      <c r="G81" s="145"/>
+      <c r="H81" s="55">
+        <v>43288</v>
+      </c>
+      <c r="I81" s="52"/>
+      <c r="J81" s="50"/>
+      <c r="K81" s="152"/>
+    </row>
+    <row r="82" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A82" s="53"/>
+      <c r="B82" s="124"/>
+      <c r="C82" s="125"/>
+      <c r="D82" s="121"/>
+      <c r="E82" s="122"/>
+      <c r="F82" s="121"/>
+      <c r="G82" s="122"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="52"/>
+      <c r="J82" s="50"/>
+      <c r="K82" s="120"/>
+    </row>
+    <row r="83" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A83" s="100" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83" s="155" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" s="155"/>
+      <c r="D83" s="153"/>
+      <c r="E83" s="153"/>
+      <c r="F83" s="153"/>
+      <c r="G83" s="153"/>
+      <c r="H83" s="153"/>
+      <c r="I83" s="153"/>
+      <c r="J83" s="153"/>
+      <c r="K83" s="153"/>
+    </row>
+    <row r="84" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A84" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="129"/>
+      <c r="D84" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="E84" s="129"/>
+      <c r="F84" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="129"/>
+      <c r="H84" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="I84" s="130"/>
+      <c r="J84" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="K84" s="119" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A85" s="50">
+        <v>12</v>
+      </c>
+      <c r="B85" s="131" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85" s="132"/>
+      <c r="D85" s="140" t="s">
+        <v>111</v>
+      </c>
+      <c r="E85" s="141"/>
+      <c r="F85" s="140" t="s">
+        <v>112</v>
+      </c>
+      <c r="G85" s="141"/>
+      <c r="H85" s="148" t="s">
+        <v>32</v>
+      </c>
+      <c r="I85" s="149"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="150"/>
+    </row>
+    <row r="86" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A86" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86" s="133"/>
+      <c r="C86" s="134"/>
+      <c r="D86" s="142"/>
+      <c r="E86" s="143"/>
+      <c r="F86" s="142"/>
+      <c r="G86" s="143"/>
+      <c r="H86" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="J86" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="K86" s="151"/>
+    </row>
+    <row r="87" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A87" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87" s="133"/>
+      <c r="C87" s="134"/>
+      <c r="D87" s="142"/>
+      <c r="E87" s="143"/>
+      <c r="F87" s="142"/>
+      <c r="G87" s="143"/>
+      <c r="H87" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="151"/>
+    </row>
+    <row r="88" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A88" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="133"/>
+      <c r="C88" s="134"/>
+      <c r="D88" s="142"/>
+      <c r="E88" s="143"/>
+      <c r="F88" s="142"/>
+      <c r="G88" s="143"/>
+      <c r="H88" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="I88" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="J88" s="117"/>
+      <c r="K88" s="151"/>
+    </row>
+    <row r="89" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A89" s="53">
+        <v>861</v>
+      </c>
+      <c r="B89" s="135"/>
+      <c r="C89" s="136"/>
+      <c r="D89" s="144"/>
+      <c r="E89" s="145"/>
+      <c r="F89" s="144"/>
+      <c r="G89" s="145"/>
+      <c r="H89" s="55">
+        <v>43288</v>
+      </c>
+      <c r="I89" s="1"/>
+      <c r="J89" s="50"/>
+      <c r="K89" s="152"/>
+    </row>
+    <row r="90" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A90" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="129"/>
+      <c r="D90" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="E90" s="129"/>
+      <c r="F90" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" s="129"/>
+      <c r="H90" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="I90" s="130"/>
+      <c r="J90" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="K90" s="119" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A91" s="50">
+        <v>13</v>
+      </c>
+      <c r="B91" s="131" t="s">
+        <v>114</v>
+      </c>
+      <c r="C91" s="132"/>
+      <c r="D91" s="140" t="s">
+        <v>115</v>
+      </c>
+      <c r="E91" s="141"/>
+      <c r="F91" s="140" t="s">
+        <v>116</v>
+      </c>
+      <c r="G91" s="141"/>
+      <c r="H91" s="148" t="s">
+        <v>32</v>
+      </c>
+      <c r="I91" s="149"/>
+      <c r="J91" s="54"/>
+      <c r="K91" s="150"/>
+    </row>
+    <row r="92" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A92" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="B92" s="133"/>
+      <c r="C92" s="134"/>
+      <c r="D92" s="142"/>
+      <c r="E92" s="143"/>
+      <c r="F92" s="142"/>
+      <c r="G92" s="143"/>
+      <c r="H92" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="J92" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="K92" s="151"/>
+    </row>
+    <row r="93" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A93" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B93" s="133"/>
+      <c r="C93" s="134"/>
+      <c r="D93" s="142"/>
+      <c r="E93" s="143"/>
+      <c r="F93" s="142"/>
+      <c r="G93" s="143"/>
+      <c r="H93" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I93" s="52"/>
+      <c r="J93" s="50"/>
+      <c r="K93" s="151"/>
+    </row>
+    <row r="94" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A94" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="133"/>
+      <c r="C94" s="134"/>
+      <c r="D94" s="142"/>
+      <c r="E94" s="143"/>
+      <c r="F94" s="142"/>
+      <c r="G94" s="143"/>
+      <c r="H94" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="I94" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="J94" s="117"/>
+      <c r="K94" s="151"/>
+    </row>
+    <row r="95" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A95" s="53">
+        <v>862</v>
+      </c>
+      <c r="B95" s="135"/>
+      <c r="C95" s="136"/>
+      <c r="D95" s="144"/>
+      <c r="E95" s="145"/>
+      <c r="F95" s="144"/>
+      <c r="G95" s="145"/>
+      <c r="H95" s="55">
+        <v>43288</v>
+      </c>
+      <c r="I95" s="52"/>
+      <c r="J95" s="50"/>
+      <c r="K95" s="152"/>
+    </row>
+    <row r="96" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A96" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="129"/>
+      <c r="D96" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="E96" s="129"/>
+      <c r="F96" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96" s="129"/>
+      <c r="H96" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="I96" s="130"/>
+      <c r="J96" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="K96" s="119" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A97" s="50">
+        <v>14</v>
+      </c>
+      <c r="B97" s="131" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" s="132"/>
+      <c r="D97" s="140" t="s">
+        <v>118</v>
+      </c>
+      <c r="E97" s="141"/>
+      <c r="F97" s="140" t="s">
+        <v>119</v>
+      </c>
+      <c r="G97" s="141"/>
+      <c r="H97" s="148" t="s">
+        <v>32</v>
+      </c>
+      <c r="I97" s="149"/>
+      <c r="J97" s="54"/>
+      <c r="K97" s="150"/>
+    </row>
+    <row r="98" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A98" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="B98" s="133"/>
+      <c r="C98" s="134"/>
+      <c r="D98" s="142"/>
+      <c r="E98" s="143"/>
+      <c r="F98" s="142"/>
+      <c r="G98" s="143"/>
+      <c r="H98" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="I98" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="J98" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="K98" s="151"/>
+    </row>
+    <row r="99" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A99" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B99" s="133"/>
+      <c r="C99" s="134"/>
+      <c r="D99" s="142"/>
+      <c r="E99" s="143"/>
+      <c r="F99" s="142"/>
+      <c r="G99" s="143"/>
+      <c r="H99" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I99" s="52"/>
+      <c r="J99" s="50"/>
+      <c r="K99" s="151"/>
+    </row>
+    <row r="100" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A100" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="133"/>
+      <c r="C100" s="134"/>
+      <c r="D100" s="142"/>
+      <c r="E100" s="143"/>
+      <c r="F100" s="142"/>
+      <c r="G100" s="143"/>
+      <c r="H100" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="I100" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="J100" s="117"/>
+      <c r="K100" s="151"/>
+    </row>
+    <row r="101" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A101" s="53">
+        <v>863</v>
+      </c>
+      <c r="B101" s="135"/>
+      <c r="C101" s="136"/>
+      <c r="D101" s="144"/>
+      <c r="E101" s="145"/>
+      <c r="F101" s="144"/>
+      <c r="G101" s="145"/>
+      <c r="H101" s="55">
+        <v>43288</v>
+      </c>
+      <c r="I101" s="52"/>
+      <c r="J101" s="50"/>
+      <c r="K101" s="152"/>
+    </row>
+    <row r="102" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A102" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="J39" s="50"/>
-      <c r="K39" s="139"/>
-    </row>
-    <row r="40" spans="1:11" s="65" customFormat="1">
-      <c r="A40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-    </row>
-    <row r="41" spans="1:11" s="65" customFormat="1">
-      <c r="A41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
-      <c r="K41" s="72"/>
-    </row>
-    <row r="42" spans="1:11" s="65" customFormat="1">
-      <c r="A42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-    </row>
-    <row r="43" spans="1:11" s="65" customFormat="1">
-      <c r="A43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
-      <c r="K43" s="72"/>
-    </row>
-    <row r="44" spans="1:11" s="65" customFormat="1">
-      <c r="A44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="72"/>
-    </row>
-    <row r="45" spans="1:11" s="65" customFormat="1">
-      <c r="A45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="72"/>
-      <c r="K45" s="72"/>
-    </row>
-    <row r="46" spans="1:11" s="65" customFormat="1">
-      <c r="A46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="72"/>
-    </row>
-    <row r="47" spans="1:11" s="65" customFormat="1">
-      <c r="A47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="72"/>
-      <c r="K47" s="72"/>
-    </row>
-    <row r="48" spans="1:11" s="65" customFormat="1">
-      <c r="A48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="72"/>
-    </row>
-    <row r="49" spans="1:11" s="65" customFormat="1">
-      <c r="A49" s="72"/>
-      <c r="H49" s="72"/>
-      <c r="I49" s="72"/>
-      <c r="J49" s="72"/>
-      <c r="K49" s="72"/>
-    </row>
-    <row r="50" spans="1:11" s="65" customFormat="1">
-      <c r="A50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="72"/>
-    </row>
-    <row r="51" spans="1:11" s="65" customFormat="1">
-      <c r="A51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="72"/>
-    </row>
-    <row r="52" spans="1:11" s="65" customFormat="1">
-      <c r="A52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
-      <c r="K52" s="72"/>
-    </row>
-    <row r="53" spans="1:11" s="65" customFormat="1">
-      <c r="A53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="72"/>
-      <c r="K53" s="72"/>
-    </row>
-    <row r="54" spans="1:11" s="65" customFormat="1">
-      <c r="A54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="72"/>
-      <c r="K54" s="72"/>
-    </row>
-    <row r="55" spans="1:11" s="65" customFormat="1">
-      <c r="A55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="72"/>
-      <c r="K55" s="72"/>
-    </row>
-    <row r="56" spans="1:11" s="65" customFormat="1">
-      <c r="A56" s="72"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="72"/>
-      <c r="J56" s="72"/>
-      <c r="K56" s="72"/>
-    </row>
-    <row r="57" spans="1:11" s="65" customFormat="1">
-      <c r="A57" s="72"/>
-      <c r="H57" s="72"/>
-      <c r="I57" s="72"/>
-      <c r="J57" s="72"/>
-      <c r="K57" s="72"/>
-    </row>
-    <row r="58" spans="1:11" s="65" customFormat="1">
-      <c r="A58" s="72"/>
-      <c r="H58" s="72"/>
-      <c r="I58" s="72"/>
-      <c r="J58" s="72"/>
-      <c r="K58" s="72"/>
-    </row>
-    <row r="59" spans="1:11" s="65" customFormat="1">
-      <c r="A59" s="72"/>
-      <c r="H59" s="72"/>
-      <c r="I59" s="72"/>
-      <c r="J59" s="72"/>
-      <c r="K59" s="72"/>
-    </row>
-    <row r="60" spans="1:11" s="65" customFormat="1">
-      <c r="A60" s="72"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="72"/>
-      <c r="J60" s="72"/>
-      <c r="K60" s="72"/>
-    </row>
-    <row r="61" spans="1:11" s="65" customFormat="1">
-      <c r="A61" s="72"/>
-      <c r="H61" s="72"/>
-      <c r="I61" s="72"/>
-      <c r="J61" s="72"/>
-      <c r="K61" s="72"/>
-    </row>
-    <row r="62" spans="1:11" s="65" customFormat="1">
-      <c r="A62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="72"/>
-      <c r="J62" s="72"/>
-      <c r="K62" s="72"/>
-    </row>
-    <row r="63" spans="1:11" s="65" customFormat="1">
-      <c r="A63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
-      <c r="J63" s="72"/>
-      <c r="K63" s="72"/>
-    </row>
-    <row r="64" spans="1:11" s="65" customFormat="1">
-      <c r="A64" s="72"/>
-      <c r="H64" s="72"/>
-      <c r="I64" s="72"/>
-      <c r="J64" s="72"/>
-      <c r="K64" s="72"/>
-    </row>
-    <row r="65" spans="1:11" s="65" customFormat="1">
-      <c r="A65" s="72"/>
-      <c r="H65" s="72"/>
-      <c r="I65" s="72"/>
-      <c r="J65" s="72"/>
-      <c r="K65" s="72"/>
-    </row>
-    <row r="66" spans="1:11" s="65" customFormat="1">
-      <c r="A66" s="72"/>
-      <c r="H66" s="72"/>
-      <c r="I66" s="72"/>
-      <c r="J66" s="72"/>
-      <c r="K66" s="72"/>
-    </row>
-    <row r="67" spans="1:11" s="65" customFormat="1">
-      <c r="A67" s="72"/>
-      <c r="H67" s="72"/>
-      <c r="I67" s="72"/>
-      <c r="J67" s="72"/>
-      <c r="K67" s="72"/>
-    </row>
-    <row r="68" spans="1:11" s="65" customFormat="1">
-      <c r="A68" s="72"/>
-      <c r="H68" s="72"/>
-      <c r="I68" s="72"/>
-      <c r="J68" s="72"/>
-      <c r="K68" s="72"/>
-    </row>
-    <row r="69" spans="1:11" s="65" customFormat="1">
-      <c r="A69" s="72"/>
-      <c r="H69" s="72"/>
-      <c r="I69" s="72"/>
-      <c r="J69" s="72"/>
-      <c r="K69" s="72"/>
-    </row>
-    <row r="70" spans="1:11" s="65" customFormat="1">
-      <c r="A70" s="72"/>
-      <c r="H70" s="72"/>
-      <c r="I70" s="72"/>
-      <c r="J70" s="72"/>
-      <c r="K70" s="72"/>
-    </row>
-    <row r="71" spans="1:11" s="65" customFormat="1">
-      <c r="A71" s="72"/>
-      <c r="H71" s="72"/>
-      <c r="I71" s="72"/>
-      <c r="J71" s="72"/>
-      <c r="K71" s="72"/>
-    </row>
-    <row r="72" spans="1:11" s="65" customFormat="1">
-      <c r="A72" s="72"/>
-      <c r="H72" s="72"/>
-      <c r="I72" s="72"/>
-      <c r="J72" s="72"/>
-      <c r="K72" s="72"/>
-    </row>
-    <row r="73" spans="1:11" s="65" customFormat="1">
-      <c r="A73" s="72"/>
-      <c r="H73" s="72"/>
-      <c r="I73" s="72"/>
-      <c r="J73" s="72"/>
-      <c r="K73" s="72"/>
-    </row>
-    <row r="74" spans="1:11" s="65" customFormat="1">
-      <c r="A74" s="72"/>
-      <c r="H74" s="72"/>
-      <c r="I74" s="72"/>
-      <c r="J74" s="72"/>
-      <c r="K74" s="72"/>
-    </row>
-    <row r="75" spans="1:11" s="65" customFormat="1">
-      <c r="A75" s="72"/>
-      <c r="H75" s="72"/>
-      <c r="I75" s="72"/>
-      <c r="J75" s="72"/>
-      <c r="K75" s="72"/>
-    </row>
-    <row r="76" spans="1:11" s="65" customFormat="1">
-      <c r="A76" s="72"/>
-      <c r="H76" s="72"/>
-      <c r="I76" s="72"/>
-      <c r="J76" s="72"/>
-      <c r="K76" s="72"/>
-    </row>
-    <row r="77" spans="1:11" s="65" customFormat="1">
-      <c r="A77" s="72"/>
-      <c r="H77" s="72"/>
-      <c r="I77" s="72"/>
-      <c r="J77" s="72"/>
-      <c r="K77" s="72"/>
-    </row>
-    <row r="78" spans="1:11" s="65" customFormat="1">
-      <c r="A78" s="72"/>
-      <c r="H78" s="72"/>
-      <c r="I78" s="72"/>
-      <c r="J78" s="72"/>
-      <c r="K78" s="72"/>
-    </row>
-    <row r="79" spans="1:11" s="65" customFormat="1">
-      <c r="A79" s="72"/>
-      <c r="H79" s="72"/>
-      <c r="I79" s="72"/>
-      <c r="J79" s="72"/>
-      <c r="K79" s="72"/>
-    </row>
-    <row r="80" spans="1:11" s="65" customFormat="1">
-      <c r="A80" s="72"/>
-      <c r="H80" s="72"/>
-      <c r="I80" s="72"/>
-      <c r="J80" s="72"/>
-      <c r="K80" s="72"/>
-    </row>
-    <row r="81" spans="1:11" s="65" customFormat="1">
-      <c r="A81" s="72"/>
-      <c r="H81" s="72"/>
-      <c r="I81" s="72"/>
-      <c r="J81" s="72"/>
-      <c r="K81" s="72"/>
-    </row>
-    <row r="82" spans="1:11" s="65" customFormat="1">
-      <c r="A82" s="72"/>
-      <c r="H82" s="72"/>
-      <c r="I82" s="72"/>
-      <c r="J82" s="72"/>
-      <c r="K82" s="72"/>
-    </row>
-    <row r="83" spans="1:11" s="65" customFormat="1">
-      <c r="A83" s="72"/>
-      <c r="H83" s="72"/>
-      <c r="I83" s="72"/>
-      <c r="J83" s="72"/>
-      <c r="K83" s="72"/>
-    </row>
-    <row r="84" spans="1:11" s="65" customFormat="1">
-      <c r="A84" s="72"/>
-      <c r="H84" s="72"/>
-      <c r="I84" s="72"/>
-      <c r="J84" s="72"/>
-      <c r="K84" s="72"/>
-    </row>
-    <row r="85" spans="1:11" s="65" customFormat="1">
-      <c r="A85" s="72"/>
-      <c r="H85" s="72"/>
-      <c r="I85" s="72"/>
-      <c r="J85" s="72"/>
-      <c r="K85" s="72"/>
-    </row>
-    <row r="86" spans="1:11" s="65" customFormat="1">
-      <c r="A86" s="72"/>
-      <c r="H86" s="72"/>
-      <c r="I86" s="72"/>
-      <c r="J86" s="72"/>
-      <c r="K86" s="72"/>
-    </row>
-    <row r="87" spans="1:11" s="65" customFormat="1">
-      <c r="A87" s="72"/>
-      <c r="H87" s="72"/>
-      <c r="I87" s="72"/>
-      <c r="J87" s="72"/>
-      <c r="K87" s="72"/>
-    </row>
-    <row r="88" spans="1:11" s="65" customFormat="1">
-      <c r="A88" s="72"/>
-      <c r="H88" s="72"/>
-      <c r="I88" s="72"/>
-      <c r="J88" s="72"/>
-      <c r="K88" s="72"/>
-    </row>
-    <row r="89" spans="1:11" s="65" customFormat="1">
-      <c r="A89" s="72"/>
-      <c r="H89" s="72"/>
-      <c r="I89" s="72"/>
-      <c r="J89" s="72"/>
-      <c r="K89" s="72"/>
-    </row>
-    <row r="90" spans="1:11" s="65" customFormat="1">
-      <c r="A90" s="72"/>
-      <c r="H90" s="72"/>
-      <c r="I90" s="72"/>
-      <c r="J90" s="72"/>
-      <c r="K90" s="72"/>
-    </row>
-    <row r="91" spans="1:11" s="65" customFormat="1">
-      <c r="A91" s="72"/>
-      <c r="H91" s="72"/>
-      <c r="I91" s="72"/>
-      <c r="J91" s="72"/>
-      <c r="K91" s="72"/>
-    </row>
-    <row r="92" spans="1:11" s="65" customFormat="1">
-      <c r="A92" s="72"/>
-      <c r="H92" s="72"/>
-      <c r="I92" s="72"/>
-      <c r="J92" s="72"/>
-      <c r="K92" s="72"/>
-    </row>
-    <row r="93" spans="1:11" s="65" customFormat="1">
-      <c r="A93" s="72"/>
-      <c r="H93" s="72"/>
-      <c r="I93" s="72"/>
-      <c r="J93" s="72"/>
-      <c r="K93" s="72"/>
-    </row>
-    <row r="94" spans="1:11" s="65" customFormat="1">
-      <c r="A94" s="72"/>
-      <c r="H94" s="72"/>
-      <c r="I94" s="72"/>
-      <c r="J94" s="72"/>
-      <c r="K94" s="72"/>
-    </row>
-    <row r="95" spans="1:11" s="65" customFormat="1">
-      <c r="A95" s="72"/>
-      <c r="H95" s="72"/>
-      <c r="I95" s="72"/>
-      <c r="J95" s="72"/>
-      <c r="K95" s="72"/>
-    </row>
-    <row r="96" spans="1:11" s="65" customFormat="1">
-      <c r="A96" s="72"/>
-      <c r="H96" s="72"/>
-      <c r="I96" s="72"/>
-      <c r="J96" s="72"/>
-      <c r="K96" s="72"/>
+      <c r="C102" s="139"/>
+      <c r="D102" s="138" t="s">
+        <v>49</v>
+      </c>
+      <c r="E102" s="139"/>
+      <c r="F102" s="138" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102" s="139"/>
+      <c r="H102" s="137" t="s">
+        <v>23</v>
+      </c>
+      <c r="I102" s="137"/>
+      <c r="J102" s="123" t="s">
+        <v>24</v>
+      </c>
+      <c r="K102" s="123" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A103" s="50">
+        <v>15</v>
+      </c>
+      <c r="B103" s="131" t="s">
+        <v>58</v>
+      </c>
+      <c r="C103" s="132"/>
+      <c r="D103" s="140" t="s">
+        <v>120</v>
+      </c>
+      <c r="E103" s="141"/>
+      <c r="F103" s="140" t="s">
+        <v>60</v>
+      </c>
+      <c r="G103" s="141"/>
+      <c r="H103" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="I103" s="147"/>
+      <c r="J103" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="K103" s="150"/>
+    </row>
+    <row r="104" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A104" s="123" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" s="133"/>
+      <c r="C104" s="134"/>
+      <c r="D104" s="142"/>
+      <c r="E104" s="143"/>
+      <c r="F104" s="142"/>
+      <c r="G104" s="143"/>
+      <c r="H104" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="I104" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="J104" s="123" t="s">
+        <v>31</v>
+      </c>
+      <c r="K104" s="151"/>
+    </row>
+    <row r="105" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A105" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B105" s="133"/>
+      <c r="C105" s="134"/>
+      <c r="D105" s="142"/>
+      <c r="E105" s="143"/>
+      <c r="F105" s="142"/>
+      <c r="G105" s="143"/>
+      <c r="H105" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I105" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="J105" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="K105" s="151"/>
+    </row>
+    <row r="106" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A106" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="133"/>
+      <c r="C106" s="134"/>
+      <c r="D106" s="142"/>
+      <c r="E106" s="143"/>
+      <c r="F106" s="142"/>
+      <c r="G106" s="143"/>
+      <c r="H106" s="123" t="s">
+        <v>30</v>
+      </c>
+      <c r="I106" s="123" t="s">
+        <v>27</v>
+      </c>
+      <c r="J106" s="123"/>
+      <c r="K106" s="151"/>
+    </row>
+    <row r="107" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A107" s="53">
+        <v>864</v>
+      </c>
+      <c r="B107" s="135"/>
+      <c r="C107" s="136"/>
+      <c r="D107" s="144"/>
+      <c r="E107" s="145"/>
+      <c r="F107" s="144"/>
+      <c r="G107" s="145"/>
+      <c r="H107" s="55">
+        <v>43288</v>
+      </c>
+      <c r="I107" s="52">
+        <v>43305</v>
+      </c>
+      <c r="J107" s="50"/>
+      <c r="K107" s="152"/>
+    </row>
+    <row r="108" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A108" s="53"/>
+      <c r="B108" s="124"/>
+      <c r="C108" s="125"/>
+      <c r="D108" s="121"/>
+      <c r="E108" s="122"/>
+      <c r="F108" s="121"/>
+      <c r="G108" s="122"/>
+      <c r="H108" s="55"/>
+      <c r="I108" s="52"/>
+      <c r="J108" s="50"/>
+      <c r="K108" s="120"/>
+    </row>
+    <row r="109" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A109" s="100" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109" s="155" t="s">
+        <v>123</v>
+      </c>
+      <c r="C109" s="155"/>
+      <c r="D109" s="153"/>
+      <c r="E109" s="153"/>
+      <c r="F109" s="153"/>
+      <c r="G109" s="153"/>
+      <c r="H109" s="153"/>
+      <c r="I109" s="153"/>
+      <c r="J109" s="153"/>
+      <c r="K109" s="153"/>
+    </row>
+    <row r="110" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A110" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C110" s="129"/>
+      <c r="D110" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="E110" s="129"/>
+      <c r="F110" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110" s="129"/>
+      <c r="H110" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="I110" s="130"/>
+      <c r="J110" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="K110" s="119" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A111" s="50">
+        <v>16</v>
+      </c>
+      <c r="B111" s="131" t="s">
+        <v>125</v>
+      </c>
+      <c r="C111" s="132"/>
+      <c r="D111" s="140" t="s">
+        <v>126</v>
+      </c>
+      <c r="E111" s="141"/>
+      <c r="F111" s="140" t="s">
+        <v>127</v>
+      </c>
+      <c r="G111" s="141"/>
+      <c r="H111" s="148" t="s">
+        <v>32</v>
+      </c>
+      <c r="I111" s="149"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="150"/>
+    </row>
+    <row r="112" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A112" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="B112" s="133"/>
+      <c r="C112" s="134"/>
+      <c r="D112" s="142"/>
+      <c r="E112" s="143"/>
+      <c r="F112" s="142"/>
+      <c r="G112" s="143"/>
+      <c r="H112" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="I112" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="J112" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="K112" s="151"/>
+    </row>
+    <row r="113" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A113" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113" s="133"/>
+      <c r="C113" s="134"/>
+      <c r="D113" s="142"/>
+      <c r="E113" s="143"/>
+      <c r="F113" s="142"/>
+      <c r="G113" s="143"/>
+      <c r="H113" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="151"/>
+    </row>
+    <row r="114" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A114" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="133"/>
+      <c r="C114" s="134"/>
+      <c r="D114" s="142"/>
+      <c r="E114" s="143"/>
+      <c r="F114" s="142"/>
+      <c r="G114" s="143"/>
+      <c r="H114" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="I114" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="J114" s="117"/>
+      <c r="K114" s="151"/>
+    </row>
+    <row r="115" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A115" s="53">
+        <v>871</v>
+      </c>
+      <c r="B115" s="135"/>
+      <c r="C115" s="136"/>
+      <c r="D115" s="144"/>
+      <c r="E115" s="145"/>
+      <c r="F115" s="144"/>
+      <c r="G115" s="145"/>
+      <c r="H115" s="55">
+        <v>43288</v>
+      </c>
+      <c r="I115" s="1"/>
+      <c r="J115" s="50"/>
+      <c r="K115" s="152"/>
+    </row>
+    <row r="116" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A116" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" s="129"/>
+      <c r="D116" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="E116" s="129"/>
+      <c r="F116" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="G116" s="129"/>
+      <c r="H116" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="I116" s="130"/>
+      <c r="J116" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="K116" s="119" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A117" s="50">
+        <v>17</v>
+      </c>
+      <c r="B117" s="131" t="s">
+        <v>129</v>
+      </c>
+      <c r="C117" s="132"/>
+      <c r="D117" s="140" t="s">
+        <v>130</v>
+      </c>
+      <c r="E117" s="141"/>
+      <c r="F117" s="140" t="s">
+        <v>131</v>
+      </c>
+      <c r="G117" s="141"/>
+      <c r="H117" s="148" t="s">
+        <v>32</v>
+      </c>
+      <c r="I117" s="149"/>
+      <c r="J117" s="54"/>
+      <c r="K117" s="150"/>
+    </row>
+    <row r="118" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A118" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="B118" s="133"/>
+      <c r="C118" s="134"/>
+      <c r="D118" s="142"/>
+      <c r="E118" s="143"/>
+      <c r="F118" s="142"/>
+      <c r="G118" s="143"/>
+      <c r="H118" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="I118" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="J118" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="K118" s="151"/>
+    </row>
+    <row r="119" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A119" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="B119" s="133"/>
+      <c r="C119" s="134"/>
+      <c r="D119" s="142"/>
+      <c r="E119" s="143"/>
+      <c r="F119" s="142"/>
+      <c r="G119" s="143"/>
+      <c r="H119" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I119" s="52"/>
+      <c r="J119" s="50"/>
+      <c r="K119" s="151"/>
+    </row>
+    <row r="120" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A120" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" s="133"/>
+      <c r="C120" s="134"/>
+      <c r="D120" s="142"/>
+      <c r="E120" s="143"/>
+      <c r="F120" s="142"/>
+      <c r="G120" s="143"/>
+      <c r="H120" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="I120" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="J120" s="117"/>
+      <c r="K120" s="151"/>
+    </row>
+    <row r="121" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A121" s="53">
+        <v>872</v>
+      </c>
+      <c r="B121" s="135"/>
+      <c r="C121" s="136"/>
+      <c r="D121" s="144"/>
+      <c r="E121" s="145"/>
+      <c r="F121" s="144"/>
+      <c r="G121" s="145"/>
+      <c r="H121" s="55">
+        <v>43288</v>
+      </c>
+      <c r="I121" s="52"/>
+      <c r="J121" s="50"/>
+      <c r="K121" s="152"/>
+    </row>
+    <row r="122" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A122" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B122" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" s="129"/>
+      <c r="D122" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="E122" s="129"/>
+      <c r="F122" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="G122" s="129"/>
+      <c r="H122" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="I122" s="130"/>
+      <c r="J122" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="K122" s="119" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A123" s="50">
+        <v>18</v>
+      </c>
+      <c r="B123" s="131" t="s">
+        <v>133</v>
+      </c>
+      <c r="C123" s="132"/>
+      <c r="D123" s="140" t="s">
+        <v>134</v>
+      </c>
+      <c r="E123" s="141"/>
+      <c r="F123" s="140" t="s">
+        <v>131</v>
+      </c>
+      <c r="G123" s="141"/>
+      <c r="H123" s="148" t="s">
+        <v>32</v>
+      </c>
+      <c r="I123" s="149"/>
+      <c r="J123" s="54"/>
+      <c r="K123" s="150"/>
+    </row>
+    <row r="124" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A124" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="B124" s="133"/>
+      <c r="C124" s="134"/>
+      <c r="D124" s="142"/>
+      <c r="E124" s="143"/>
+      <c r="F124" s="142"/>
+      <c r="G124" s="143"/>
+      <c r="H124" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="I124" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="J124" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="K124" s="151"/>
+    </row>
+    <row r="125" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A125" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" s="133"/>
+      <c r="C125" s="134"/>
+      <c r="D125" s="142"/>
+      <c r="E125" s="143"/>
+      <c r="F125" s="142"/>
+      <c r="G125" s="143"/>
+      <c r="H125" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I125" s="52"/>
+      <c r="J125" s="50"/>
+      <c r="K125" s="151"/>
+    </row>
+    <row r="126" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A126" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" s="133"/>
+      <c r="C126" s="134"/>
+      <c r="D126" s="142"/>
+      <c r="E126" s="143"/>
+      <c r="F126" s="142"/>
+      <c r="G126" s="143"/>
+      <c r="H126" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="I126" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="J126" s="117"/>
+      <c r="K126" s="151"/>
+    </row>
+    <row r="127" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A127" s="53">
+        <v>873</v>
+      </c>
+      <c r="B127" s="135"/>
+      <c r="C127" s="136"/>
+      <c r="D127" s="144"/>
+      <c r="E127" s="145"/>
+      <c r="F127" s="144"/>
+      <c r="G127" s="145"/>
+      <c r="H127" s="55">
+        <v>43288</v>
+      </c>
+      <c r="I127" s="52"/>
+      <c r="J127" s="50"/>
+      <c r="K127" s="152"/>
+    </row>
+    <row r="128" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A128" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B128" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C128" s="129"/>
+      <c r="D128" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="E128" s="129"/>
+      <c r="F128" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="G128" s="129"/>
+      <c r="H128" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="I128" s="130"/>
+      <c r="J128" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="K128" s="119" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A129" s="50">
+        <v>19</v>
+      </c>
+      <c r="B129" s="131" t="s">
+        <v>136</v>
+      </c>
+      <c r="C129" s="132"/>
+      <c r="D129" s="140" t="s">
+        <v>130</v>
+      </c>
+      <c r="E129" s="141"/>
+      <c r="F129" s="140" t="s">
+        <v>131</v>
+      </c>
+      <c r="G129" s="141"/>
+      <c r="H129" s="148" t="s">
+        <v>32</v>
+      </c>
+      <c r="I129" s="149"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="150"/>
+    </row>
+    <row r="130" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A130" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="B130" s="133"/>
+      <c r="C130" s="134"/>
+      <c r="D130" s="142"/>
+      <c r="E130" s="143"/>
+      <c r="F130" s="142"/>
+      <c r="G130" s="143"/>
+      <c r="H130" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="I130" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="J130" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="K130" s="151"/>
+    </row>
+    <row r="131" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A131" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="B131" s="133"/>
+      <c r="C131" s="134"/>
+      <c r="D131" s="142"/>
+      <c r="E131" s="143"/>
+      <c r="F131" s="142"/>
+      <c r="G131" s="143"/>
+      <c r="H131" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="151"/>
+    </row>
+    <row r="132" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A132" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" s="133"/>
+      <c r="C132" s="134"/>
+      <c r="D132" s="142"/>
+      <c r="E132" s="143"/>
+      <c r="F132" s="142"/>
+      <c r="G132" s="143"/>
+      <c r="H132" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="I132" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="J132" s="117"/>
+      <c r="K132" s="151"/>
+    </row>
+    <row r="133" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A133" s="53">
+        <v>874</v>
+      </c>
+      <c r="B133" s="135"/>
+      <c r="C133" s="136"/>
+      <c r="D133" s="144"/>
+      <c r="E133" s="145"/>
+      <c r="F133" s="144"/>
+      <c r="G133" s="145"/>
+      <c r="H133" s="55">
+        <v>43288</v>
+      </c>
+      <c r="I133" s="1"/>
+      <c r="J133" s="50"/>
+      <c r="K133" s="152"/>
+    </row>
+    <row r="134" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A134" s="53"/>
+      <c r="B134" s="124"/>
+      <c r="C134" s="125"/>
+      <c r="D134" s="121"/>
+      <c r="E134" s="122"/>
+      <c r="F134" s="121"/>
+      <c r="G134" s="122"/>
+      <c r="H134" s="55"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="50"/>
+      <c r="K134" s="120"/>
+    </row>
+    <row r="135" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A135" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" s="155" t="s">
+        <v>138</v>
+      </c>
+      <c r="C135" s="155"/>
+      <c r="D135" s="153"/>
+      <c r="E135" s="153"/>
+      <c r="F135" s="153"/>
+      <c r="G135" s="153"/>
+      <c r="H135" s="153"/>
+      <c r="I135" s="153"/>
+      <c r="J135" s="153"/>
+      <c r="K135" s="153"/>
+    </row>
+    <row r="136" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A136" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B136" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C136" s="129"/>
+      <c r="D136" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="E136" s="129"/>
+      <c r="F136" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="G136" s="129"/>
+      <c r="H136" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="I136" s="130"/>
+      <c r="J136" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="K136" s="119" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A137" s="50">
+        <v>20</v>
+      </c>
+      <c r="B137" s="131" t="s">
+        <v>141</v>
+      </c>
+      <c r="C137" s="132"/>
+      <c r="D137" s="140" t="s">
+        <v>142</v>
+      </c>
+      <c r="E137" s="141"/>
+      <c r="F137" s="140" t="s">
+        <v>143</v>
+      </c>
+      <c r="G137" s="141"/>
+      <c r="H137" s="148" t="s">
+        <v>32</v>
+      </c>
+      <c r="I137" s="149"/>
+      <c r="J137" s="54"/>
+      <c r="K137" s="150"/>
+    </row>
+    <row r="138" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A138" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" s="133"/>
+      <c r="C138" s="134"/>
+      <c r="D138" s="142"/>
+      <c r="E138" s="143"/>
+      <c r="F138" s="142"/>
+      <c r="G138" s="143"/>
+      <c r="H138" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="I138" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="J138" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="K138" s="151"/>
+    </row>
+    <row r="139" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A139" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" s="133"/>
+      <c r="C139" s="134"/>
+      <c r="D139" s="142"/>
+      <c r="E139" s="143"/>
+      <c r="F139" s="142"/>
+      <c r="G139" s="143"/>
+      <c r="H139" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I139" s="52"/>
+      <c r="J139" s="50"/>
+      <c r="K139" s="151"/>
+    </row>
+    <row r="140" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A140" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" s="133"/>
+      <c r="C140" s="134"/>
+      <c r="D140" s="142"/>
+      <c r="E140" s="143"/>
+      <c r="F140" s="142"/>
+      <c r="G140" s="143"/>
+      <c r="H140" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="I140" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="J140" s="117"/>
+      <c r="K140" s="151"/>
+    </row>
+    <row r="141" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A141" s="53">
+        <v>881</v>
+      </c>
+      <c r="B141" s="135"/>
+      <c r="C141" s="136"/>
+      <c r="D141" s="144"/>
+      <c r="E141" s="145"/>
+      <c r="F141" s="144"/>
+      <c r="G141" s="145"/>
+      <c r="H141" s="55">
+        <v>43288</v>
+      </c>
+      <c r="I141" s="52"/>
+      <c r="J141" s="50"/>
+      <c r="K141" s="152"/>
+    </row>
+    <row r="142" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A142" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B142" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C142" s="129"/>
+      <c r="D142" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="E142" s="129"/>
+      <c r="F142" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="G142" s="129"/>
+      <c r="H142" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="I142" s="130"/>
+      <c r="J142" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="K142" s="119" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A143" s="50">
+        <v>21</v>
+      </c>
+      <c r="B143" s="131" t="s">
+        <v>144</v>
+      </c>
+      <c r="C143" s="132"/>
+      <c r="D143" s="140" t="s">
+        <v>145</v>
+      </c>
+      <c r="E143" s="141"/>
+      <c r="F143" s="140" t="s">
+        <v>143</v>
+      </c>
+      <c r="G143" s="141"/>
+      <c r="H143" s="148" t="s">
+        <v>32</v>
+      </c>
+      <c r="I143" s="149"/>
+      <c r="J143" s="54"/>
+      <c r="K143" s="150"/>
+    </row>
+    <row r="144" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A144" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="B144" s="133"/>
+      <c r="C144" s="134"/>
+      <c r="D144" s="142"/>
+      <c r="E144" s="143"/>
+      <c r="F144" s="142"/>
+      <c r="G144" s="143"/>
+      <c r="H144" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="I144" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="J144" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="K144" s="151"/>
+    </row>
+    <row r="145" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A145" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="B145" s="133"/>
+      <c r="C145" s="134"/>
+      <c r="D145" s="142"/>
+      <c r="E145" s="143"/>
+      <c r="F145" s="142"/>
+      <c r="G145" s="143"/>
+      <c r="H145" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I145" s="52"/>
+      <c r="J145" s="50"/>
+      <c r="K145" s="151"/>
+    </row>
+    <row r="146" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A146" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" s="133"/>
+      <c r="C146" s="134"/>
+      <c r="D146" s="142"/>
+      <c r="E146" s="143"/>
+      <c r="F146" s="142"/>
+      <c r="G146" s="143"/>
+      <c r="H146" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="I146" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="J146" s="117"/>
+      <c r="K146" s="151"/>
+    </row>
+    <row r="147" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A147" s="53">
+        <v>882</v>
+      </c>
+      <c r="B147" s="135"/>
+      <c r="C147" s="136"/>
+      <c r="D147" s="144"/>
+      <c r="E147" s="145"/>
+      <c r="F147" s="144"/>
+      <c r="G147" s="145"/>
+      <c r="H147" s="55">
+        <v>43288</v>
+      </c>
+      <c r="I147" s="52"/>
+      <c r="J147" s="50"/>
+      <c r="K147" s="152"/>
+    </row>
+    <row r="148" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A148" s="53"/>
+      <c r="B148" s="124"/>
+      <c r="C148" s="125"/>
+      <c r="D148" s="121"/>
+      <c r="E148" s="122"/>
+      <c r="F148" s="121"/>
+      <c r="G148" s="122"/>
+      <c r="H148" s="55"/>
+      <c r="I148" s="52"/>
+      <c r="J148" s="50"/>
+      <c r="K148" s="120"/>
+    </row>
+    <row r="149" spans="1:11" s="59" customFormat="1">
+      <c r="A149" s="63"/>
+      <c r="H149" s="63"/>
+      <c r="I149" s="63"/>
+      <c r="J149" s="63"/>
+      <c r="K149" s="63"/>
+    </row>
+    <row r="150" spans="1:11" s="59" customFormat="1">
+      <c r="A150" s="63"/>
+      <c r="H150" s="63"/>
+      <c r="I150" s="63"/>
+      <c r="J150" s="63"/>
+      <c r="K150" s="63"/>
+    </row>
+    <row r="151" spans="1:11" s="59" customFormat="1">
+      <c r="A151" s="63"/>
+      <c r="H151" s="63"/>
+      <c r="I151" s="63"/>
+      <c r="J151" s="63"/>
+      <c r="K151" s="63"/>
+    </row>
+    <row r="152" spans="1:11" s="59" customFormat="1">
+      <c r="A152" s="63"/>
+      <c r="H152" s="63"/>
+      <c r="I152" s="63"/>
+      <c r="J152" s="63"/>
+      <c r="K152" s="63"/>
+    </row>
+    <row r="153" spans="1:11" s="59" customFormat="1">
+      <c r="A153" s="63"/>
+      <c r="H153" s="63"/>
+      <c r="I153" s="63"/>
+      <c r="J153" s="63"/>
+      <c r="K153" s="63"/>
+    </row>
+    <row r="154" spans="1:11" s="59" customFormat="1">
+      <c r="A154" s="63"/>
+      <c r="H154" s="63"/>
+      <c r="I154" s="63"/>
+      <c r="J154" s="63"/>
+      <c r="K154" s="63"/>
+    </row>
+    <row r="155" spans="1:11" s="59" customFormat="1">
+      <c r="A155" s="63"/>
+      <c r="H155" s="63"/>
+      <c r="I155" s="63"/>
+      <c r="J155" s="63"/>
+      <c r="K155" s="63"/>
+    </row>
+    <row r="156" spans="1:11" s="59" customFormat="1">
+      <c r="A156" s="63"/>
+      <c r="H156" s="63"/>
+      <c r="I156" s="63"/>
+      <c r="J156" s="63"/>
+      <c r="K156" s="63"/>
+    </row>
+    <row r="157" spans="1:11" s="59" customFormat="1">
+      <c r="A157" s="63"/>
+      <c r="H157" s="63"/>
+      <c r="I157" s="63"/>
+      <c r="J157" s="63"/>
+      <c r="K157" s="63"/>
+    </row>
+    <row r="158" spans="1:11" s="59" customFormat="1">
+      <c r="A158" s="63"/>
+      <c r="H158" s="63"/>
+      <c r="I158" s="63"/>
+      <c r="J158" s="63"/>
+      <c r="K158" s="63"/>
+    </row>
+    <row r="159" spans="1:11" s="59" customFormat="1">
+      <c r="A159" s="63"/>
+      <c r="H159" s="63"/>
+      <c r="I159" s="63"/>
+      <c r="J159" s="63"/>
+      <c r="K159" s="63"/>
+    </row>
+    <row r="160" spans="1:11" s="59" customFormat="1">
+      <c r="A160" s="63"/>
+      <c r="H160" s="63"/>
+      <c r="I160" s="63"/>
+      <c r="J160" s="63"/>
+      <c r="K160" s="63"/>
+    </row>
+    <row r="161" spans="1:11" s="59" customFormat="1">
+      <c r="A161" s="63"/>
+      <c r="H161" s="63"/>
+      <c r="I161" s="63"/>
+      <c r="J161" s="63"/>
+      <c r="K161" s="63"/>
+    </row>
+    <row r="162" spans="1:11" s="59" customFormat="1">
+      <c r="A162" s="63"/>
+      <c r="H162" s="63"/>
+      <c r="I162" s="63"/>
+      <c r="J162" s="63"/>
+      <c r="K162" s="63"/>
+    </row>
+    <row r="163" spans="1:11" s="59" customFormat="1">
+      <c r="A163" s="63"/>
+      <c r="H163" s="63"/>
+      <c r="I163" s="63"/>
+      <c r="J163" s="63"/>
+      <c r="K163" s="63"/>
+    </row>
+    <row r="164" spans="1:11" s="59" customFormat="1">
+      <c r="A164" s="63"/>
+      <c r="H164" s="63"/>
+      <c r="I164" s="63"/>
+      <c r="J164" s="63"/>
+      <c r="K164" s="63"/>
+    </row>
+    <row r="165" spans="1:11" s="59" customFormat="1">
+      <c r="A165" s="63"/>
+      <c r="H165" s="63"/>
+      <c r="I165" s="63"/>
+      <c r="J165" s="63"/>
+      <c r="K165" s="63"/>
+    </row>
+    <row r="166" spans="1:11" s="59" customFormat="1">
+      <c r="A166" s="63"/>
+      <c r="H166" s="63"/>
+      <c r="I166" s="63"/>
+      <c r="J166" s="63"/>
+      <c r="K166" s="63"/>
+    </row>
+    <row r="167" spans="1:11" s="59" customFormat="1">
+      <c r="A167" s="63"/>
+      <c r="H167" s="63"/>
+      <c r="I167" s="63"/>
+      <c r="J167" s="63"/>
+      <c r="K167" s="63"/>
+    </row>
+    <row r="168" spans="1:11" s="59" customFormat="1">
+      <c r="A168" s="63"/>
+      <c r="H168" s="63"/>
+      <c r="I168" s="63"/>
+      <c r="J168" s="63"/>
+      <c r="K168" s="63"/>
+    </row>
+    <row r="169" spans="1:11" s="59" customFormat="1">
+      <c r="A169" s="63"/>
+      <c r="H169" s="63"/>
+      <c r="I169" s="63"/>
+      <c r="J169" s="63"/>
+      <c r="K169" s="63"/>
+    </row>
+    <row r="170" spans="1:11" s="59" customFormat="1">
+      <c r="A170" s="63"/>
+      <c r="H170" s="63"/>
+      <c r="I170" s="63"/>
+      <c r="J170" s="63"/>
+      <c r="K170" s="63"/>
+    </row>
+    <row r="171" spans="1:11" s="59" customFormat="1">
+      <c r="A171" s="63"/>
+      <c r="H171" s="63"/>
+      <c r="I171" s="63"/>
+      <c r="J171" s="63"/>
+      <c r="K171" s="63"/>
+    </row>
+    <row r="172" spans="1:11" s="59" customFormat="1">
+      <c r="A172" s="63"/>
+      <c r="H172" s="63"/>
+      <c r="I172" s="63"/>
+      <c r="J172" s="63"/>
+      <c r="K172" s="63"/>
+    </row>
+    <row r="173" spans="1:11" s="59" customFormat="1">
+      <c r="A173" s="63"/>
+      <c r="H173" s="63"/>
+      <c r="I173" s="63"/>
+      <c r="J173" s="63"/>
+      <c r="K173" s="63"/>
+    </row>
+    <row r="174" spans="1:11" s="59" customFormat="1">
+      <c r="A174" s="63"/>
+      <c r="H174" s="63"/>
+      <c r="I174" s="63"/>
+      <c r="J174" s="63"/>
+      <c r="K174" s="63"/>
+    </row>
+    <row r="175" spans="1:11" s="59" customFormat="1">
+      <c r="A175" s="63"/>
+      <c r="H175" s="63"/>
+      <c r="I175" s="63"/>
+      <c r="J175" s="63"/>
+      <c r="K175" s="63"/>
+    </row>
+    <row r="176" spans="1:11" s="59" customFormat="1">
+      <c r="A176" s="63"/>
+      <c r="H176" s="63"/>
+      <c r="I176" s="63"/>
+      <c r="J176" s="63"/>
+      <c r="K176" s="63"/>
+    </row>
+    <row r="177" spans="1:11" s="59" customFormat="1">
+      <c r="A177" s="63"/>
+      <c r="H177" s="63"/>
+      <c r="I177" s="63"/>
+      <c r="J177" s="63"/>
+      <c r="K177" s="63"/>
+    </row>
+    <row r="178" spans="1:11" s="59" customFormat="1">
+      <c r="A178" s="63"/>
+      <c r="H178" s="63"/>
+      <c r="I178" s="63"/>
+      <c r="J178" s="63"/>
+      <c r="K178" s="63"/>
+    </row>
+    <row r="179" spans="1:11" s="59" customFormat="1">
+      <c r="A179" s="63"/>
+      <c r="H179" s="63"/>
+      <c r="I179" s="63"/>
+      <c r="J179" s="63"/>
+      <c r="K179" s="63"/>
+    </row>
+    <row r="180" spans="1:11" s="59" customFormat="1">
+      <c r="A180" s="63"/>
+      <c r="H180" s="63"/>
+      <c r="I180" s="63"/>
+      <c r="J180" s="63"/>
+      <c r="K180" s="63"/>
+    </row>
+    <row r="181" spans="1:11" s="59" customFormat="1">
+      <c r="A181" s="63"/>
+      <c r="H181" s="63"/>
+      <c r="I181" s="63"/>
+      <c r="J181" s="63"/>
+      <c r="K181" s="63"/>
+    </row>
+    <row r="182" spans="1:11" s="59" customFormat="1">
+      <c r="A182" s="63"/>
+      <c r="H182" s="63"/>
+      <c r="I182" s="63"/>
+      <c r="J182" s="63"/>
+      <c r="K182" s="63"/>
+    </row>
+    <row r="183" spans="1:11" s="59" customFormat="1">
+      <c r="A183" s="63"/>
+      <c r="H183" s="63"/>
+      <c r="I183" s="63"/>
+      <c r="J183" s="63"/>
+      <c r="K183" s="63"/>
+    </row>
+    <row r="184" spans="1:11" s="59" customFormat="1">
+      <c r="A184" s="63"/>
+      <c r="H184" s="63"/>
+      <c r="I184" s="63"/>
+      <c r="J184" s="63"/>
+      <c r="K184" s="63"/>
+    </row>
+    <row r="185" spans="1:11" s="59" customFormat="1">
+      <c r="A185" s="63"/>
+      <c r="H185" s="63"/>
+      <c r="I185" s="63"/>
+      <c r="J185" s="63"/>
+      <c r="K185" s="63"/>
+    </row>
+    <row r="186" spans="1:11" s="59" customFormat="1">
+      <c r="A186" s="63"/>
+      <c r="H186" s="63"/>
+      <c r="I186" s="63"/>
+      <c r="J186" s="63"/>
+      <c r="K186" s="63"/>
+    </row>
+    <row r="187" spans="1:11" s="59" customFormat="1">
+      <c r="A187" s="63"/>
+      <c r="H187" s="63"/>
+      <c r="I187" s="63"/>
+      <c r="J187" s="63"/>
+      <c r="K187" s="63"/>
+    </row>
+    <row r="188" spans="1:11" s="59" customFormat="1">
+      <c r="A188" s="63"/>
+      <c r="H188" s="63"/>
+      <c r="I188" s="63"/>
+      <c r="J188" s="63"/>
+      <c r="K188" s="63"/>
+    </row>
+    <row r="189" spans="1:11" s="59" customFormat="1">
+      <c r="A189" s="63"/>
+      <c r="H189" s="63"/>
+      <c r="I189" s="63"/>
+      <c r="J189" s="63"/>
+      <c r="K189" s="63"/>
+    </row>
+    <row r="190" spans="1:11" s="59" customFormat="1">
+      <c r="A190" s="63"/>
+      <c r="H190" s="63"/>
+      <c r="I190" s="63"/>
+      <c r="J190" s="63"/>
+      <c r="K190" s="63"/>
+    </row>
+    <row r="191" spans="1:11" s="59" customFormat="1">
+      <c r="A191" s="63"/>
+      <c r="H191" s="63"/>
+      <c r="I191" s="63"/>
+      <c r="J191" s="63"/>
+      <c r="K191" s="63"/>
+    </row>
+    <row r="192" spans="1:11" s="59" customFormat="1">
+      <c r="A192" s="63"/>
+      <c r="H192" s="63"/>
+      <c r="I192" s="63"/>
+      <c r="J192" s="63"/>
+      <c r="K192" s="63"/>
+    </row>
+    <row r="193" spans="1:11" s="59" customFormat="1">
+      <c r="A193" s="63"/>
+      <c r="H193" s="63"/>
+      <c r="I193" s="63"/>
+      <c r="J193" s="63"/>
+      <c r="K193" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="197">
+    <mergeCell ref="K143:K147"/>
+    <mergeCell ref="B135:K135"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="B143:C147"/>
+    <mergeCell ref="D143:E147"/>
+    <mergeCell ref="F143:G147"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="B137:C141"/>
+    <mergeCell ref="D137:E141"/>
+    <mergeCell ref="F137:G141"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="K137:K141"/>
+    <mergeCell ref="K129:K133"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="F128:G128"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="B129:C133"/>
+    <mergeCell ref="D129:E133"/>
+    <mergeCell ref="F129:G133"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="B123:C127"/>
+    <mergeCell ref="D123:E127"/>
+    <mergeCell ref="F123:G127"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="K123:K127"/>
+    <mergeCell ref="K117:K121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="B117:C121"/>
+    <mergeCell ref="D117:E121"/>
+    <mergeCell ref="F117:G121"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="K103:K107"/>
+    <mergeCell ref="B83:K83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="B85:C89"/>
+    <mergeCell ref="D85:E89"/>
+    <mergeCell ref="F85:G89"/>
+    <mergeCell ref="K85:K89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="B91:C95"/>
+    <mergeCell ref="D91:E95"/>
+    <mergeCell ref="F91:G95"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="B103:C107"/>
+    <mergeCell ref="D103:E107"/>
+    <mergeCell ref="F103:G107"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="B97:C101"/>
+    <mergeCell ref="D97:E101"/>
+    <mergeCell ref="F97:G101"/>
+    <mergeCell ref="K97:K101"/>
+    <mergeCell ref="B109:K109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="B111:C115"/>
+    <mergeCell ref="D111:E115"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="K91:K95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="F111:G115"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="K111:K115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="K77:K81"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="B77:C81"/>
+    <mergeCell ref="D77:E81"/>
+    <mergeCell ref="F77:G81"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="B71:C75"/>
+    <mergeCell ref="D71:E75"/>
+    <mergeCell ref="F71:G75"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="K71:K75"/>
+    <mergeCell ref="K63:K67"/>
+    <mergeCell ref="B69:K69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="B63:C67"/>
+    <mergeCell ref="D63:E67"/>
+    <mergeCell ref="F63:G67"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="B57:C61"/>
+    <mergeCell ref="D57:E61"/>
+    <mergeCell ref="F57:G61"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="K57:K61"/>
+    <mergeCell ref="K41:K45"/>
+    <mergeCell ref="B55:K55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="B41:C45"/>
+    <mergeCell ref="D41:E45"/>
+    <mergeCell ref="F41:G45"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="B35:C39"/>
+    <mergeCell ref="D35:E39"/>
+    <mergeCell ref="F35:G39"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="K35:K39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="B29:C33"/>
+    <mergeCell ref="D29:E33"/>
+    <mergeCell ref="F29:G33"/>
+    <mergeCell ref="H29:I29"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B15:C19"/>
+    <mergeCell ref="D15:E19"/>
+    <mergeCell ref="F15:G19"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="K15:K19"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="B9:C13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D9:E13"/>
+    <mergeCell ref="F9:G13"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B47:K47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="K21:K25"/>
+    <mergeCell ref="F49:G53"/>
+    <mergeCell ref="K49:K53"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="D49:E53"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="D21:E25"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="F21:G25"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C25"/>
+    <mergeCell ref="B49:C53"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B29:C33"/>
-    <mergeCell ref="B35:C39"/>
-    <mergeCell ref="D29:E33"/>
-    <mergeCell ref="D35:E39"/>
-    <mergeCell ref="F35:G39"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="D9:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="K35:K39"/>
-    <mergeCell ref="F29:G33"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B23:C27"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D15:E19"/>
-    <mergeCell ref="B15:C19"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="K15:K19"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="K23:K27"/>
-    <mergeCell ref="D23:E27"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G27"/>
+    <mergeCell ref="H34:I34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H35:I35">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="H40:I40">
+    <cfRule type="cellIs" dxfId="9" priority="13" stopIfTrue="1" operator="equal">
       <formula>"Not OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34:I34">
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"Not OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76:I76">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"Not OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H96:I96">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"Not OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90:I90">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Not OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H122:I122">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Not OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H116:I116">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Not OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H142:I142">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Not OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H136:I136">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Not OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="77" pageOrder="overThenDown" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;LTest Case Table&amp;CBig Point: &amp;A</oddHeader>
     <oddFooter>&amp;LAI&amp;&amp;T-ART&amp;CLiveSpark Project&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="46" max="10" man="1"/>
+    <brk id="147" max="10" man="1"/>
+  </rowBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>